--- a/本地play_UI _easySoftWare/test_cases/欧拉社区UI自动化测试用例.xlsx
+++ b/本地play_UI _easySoftWare/test_cases/欧拉社区UI自动化测试用例.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="13815" windowHeight="13260" activeTab="3"/>
+    <workbookView windowWidth="13815" windowHeight="13260" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1262,100 +1262,6 @@
 退出登录</t>
   </si>
   <si>
-    <t>openEuler-首页-导航-社区-关于社区</t>
-  </si>
-  <si>
-    <t>进入生产环境
-鼠标悬浮社区
-点击组织架构
-鼠标悬浮社区
-点击社区章程
-鼠标悬浮社区
-点击oEEP
-鼠标悬浮社区
-点击城市用户组
-鼠标悬浮社区
-点击成员单位
-鼠标悬浮社区
-点击社区荣誉
-鼠标悬浮社区
-点击openEuler Call for X 计划
-鼠标悬浮社区
-点击贡献看板</t>
-  </si>
-  <si>
-    <t>openEuler-首页-导航-社区-学习与贡献</t>
-  </si>
-  <si>
-    <t>进入生产环境
-鼠标悬浮社区
-点击文档
-鼠标悬浮社区
-点击高校
-鼠标悬浮社区
-点击课程中心
-鼠标悬浮社区
-点击贡献攻略
-鼠标悬浮社区
-点击SIG中心
-鼠标悬浮社区
-点击人才评定</t>
-  </si>
-  <si>
-    <t>openEuler-首页-导航-社区-项目</t>
-  </si>
-  <si>
-    <t>进入生产环境
-鼠标悬浮社区
-点击A-Tune
-鼠标悬浮社区
-点击iSula
-鼠标悬浮社区
-点击StratoVirt
-鼠标悬浮社区
-点击BiSheng JDK
-鼠标悬浮社区
-点击secGear
-鼠标悬浮社区
-点击NestOS</t>
-  </si>
-  <si>
-    <t>openEuler-首页-导航-下载-获取方式</t>
-  </si>
-  <si>
-    <t>进入生产环境
-鼠标悬浮下载
-点击获取openEuler操作系统</t>
-  </si>
-  <si>
-    <t>openEuler-首页-导航-下载-最新版本</t>
-  </si>
-  <si>
-    <t>进入生产环境
-鼠标悬浮下载
-点击openEuler 24.03 LTS
-鼠标悬浮下载
-点击openEuler 24.09</t>
-  </si>
-  <si>
-    <t>openEuler-首页-导航-下载-其他版本</t>
-  </si>
-  <si>
-    <t>进入生产环境
-鼠标悬浮下载
-点击社区发行版
-鼠标悬浮下载
-点击商业发行版</t>
-  </si>
-  <si>
-    <t>openEuler-首页-导航-下载-下载服务</t>
-  </si>
-  <si>
-    <t>进入生产环境
-鼠标悬浮下载
-点击镜像仓列表</t>
-  </si>
-  <si>
     <t>openEuler-首页-动态</t>
   </si>
   <si>
@@ -1593,9 +1499,9 @@
 鼠标悬浮开发者
 点击课程中心(开发者)
 鼠标悬浮开发者
-点击贡献攻略
+点击贡献攻略(开发者)
 鼠标悬浮开发者
-点击SIG中心
+点击SIG中心(社区)
 鼠标悬浮开发者
 点击开源实习
 鼠标悬浮开发者
@@ -1648,6 +1554,100 @@
 点击软件包仓
 鼠标悬浮开发者
 点击Github镜像仓</t>
+  </si>
+  <si>
+    <t>openEuler-首页-导航-社区-关于社区</t>
+  </si>
+  <si>
+    <t>进入生产环境
+鼠标悬浮社区
+点击组织架构
+鼠标悬浮社区
+点击社区章程
+鼠标悬浮社区
+点击oEEP
+鼠标悬浮社区
+点击城市用户组
+鼠标悬浮社区
+点击成员单位
+鼠标悬浮社区
+点击社区荣誉
+鼠标悬浮社区
+点击openEuler Call for X 计划
+鼠标悬浮社区
+点击贡献看板</t>
+  </si>
+  <si>
+    <t>openEuler-首页-导航-社区-学习与贡献</t>
+  </si>
+  <si>
+    <t>进入生产环境
+鼠标悬浮社区
+点击文档(社区)
+鼠标悬浮社区
+点击高校
+鼠标悬浮社区
+点击课程中心(社区)
+鼠标悬浮社区
+点击贡献攻略(社区)
+鼠标悬浮社区
+点击SIG中心(社区)
+鼠标悬浮社区
+点击人才评定</t>
+  </si>
+  <si>
+    <t>openEuler-首页-导航-社区-项目</t>
+  </si>
+  <si>
+    <t>进入生产环境
+鼠标悬浮社区
+点击A-Tune
+鼠标悬浮社区
+点击iSula
+鼠标悬浮社区
+点击StratoVirt
+鼠标悬浮社区
+点击BiSheng JDK
+鼠标悬浮社区
+点击secGear
+鼠标悬浮社区
+点击NestOS</t>
+  </si>
+  <si>
+    <t>openEuler-首页-导航-下载-获取方式</t>
+  </si>
+  <si>
+    <t>进入生产环境
+鼠标悬浮下载
+点击获取openEuler操作系统</t>
+  </si>
+  <si>
+    <t>openEuler-首页-导航-下载-最新版本</t>
+  </si>
+  <si>
+    <t>进入生产环境
+鼠标悬浮下载
+点击openEuler 24.03 LTS
+鼠标悬浮下载
+点击openEuler 24.09</t>
+  </si>
+  <si>
+    <t>openEuler-首页-导航-下载-其他版本</t>
+  </si>
+  <si>
+    <t>进入生产环境
+鼠标悬浮下载
+点击社区发行版
+鼠标悬浮下载
+点击商业发行版</t>
+  </si>
+  <si>
+    <t>openEuler-首页-导航-下载-下载服务</t>
+  </si>
+  <si>
+    <t>进入生产环境
+鼠标悬浮下载
+点击镜像仓列表</t>
   </si>
 </sst>
 </file>
@@ -3439,9 +3439,9 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -3459,7 +3459,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="246" customHeight="1" spans="1:2">
+    <row r="2" s="1" customFormat="1" ht="159" customHeight="1" spans="1:2">
       <c r="A2" s="1" t="s">
         <v>182</v>
       </c>
@@ -3467,7 +3467,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="211" customHeight="1" spans="1:2">
+    <row r="3" s="1" customFormat="1" ht="159" customHeight="1" spans="1:2">
       <c r="A3" s="1" t="s">
         <v>184</v>
       </c>
@@ -3475,7 +3475,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="211" customHeight="1" spans="1:2">
+    <row r="4" s="1" customFormat="1" ht="105" customHeight="1" spans="1:2">
       <c r="A4" s="1" t="s">
         <v>186</v>
       </c>
@@ -3483,7 +3483,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="5" s="1" customFormat="1" ht="78" customHeight="1" spans="1:2">
+    <row r="5" s="1" customFormat="1" ht="137" customHeight="1" spans="1:2">
       <c r="A5" s="1" t="s">
         <v>188</v>
       </c>
@@ -3491,7 +3491,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" ht="120" customHeight="1" spans="1:2">
+    <row r="6" s="1" customFormat="1" ht="137" customHeight="1" spans="1:2">
       <c r="A6" s="1" t="s">
         <v>190</v>
       </c>
@@ -3499,7 +3499,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="7" s="1" customFormat="1" ht="126" customHeight="1" spans="1:2">
+    <row r="7" s="1" customFormat="1" ht="76" customHeight="1" spans="1:2">
       <c r="A7" s="1" t="s">
         <v>192</v>
       </c>
@@ -3507,7 +3507,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="8" s="1" customFormat="1" ht="105" customHeight="1" spans="1:2">
+    <row r="8" s="1" customFormat="1" ht="76" customHeight="1" spans="1:2">
       <c r="A8" s="1" t="s">
         <v>194</v>
       </c>
@@ -3515,7 +3515,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="9" s="1" customFormat="1" ht="159" customHeight="1" spans="1:2">
+    <row r="9" s="1" customFormat="1" ht="76" customHeight="1" spans="1:2">
       <c r="A9" s="1" t="s">
         <v>196</v>
       </c>
@@ -3523,7 +3523,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="10" s="1" customFormat="1" ht="159" customHeight="1" spans="1:2">
+    <row r="10" s="1" customFormat="1" ht="76" customHeight="1" spans="1:2">
       <c r="A10" s="1" t="s">
         <v>198</v>
       </c>
@@ -3531,7 +3531,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="11" s="1" customFormat="1" ht="105" customHeight="1" spans="1:2">
+    <row r="11" s="1" customFormat="1" ht="76" customHeight="1" spans="1:2">
       <c r="A11" s="1" t="s">
         <v>200</v>
       </c>
@@ -3539,7 +3539,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="12" s="1" customFormat="1" ht="137" customHeight="1" spans="1:2">
+    <row r="12" s="1" customFormat="1" ht="76" customHeight="1" spans="1:2">
       <c r="A12" s="1" t="s">
         <v>202</v>
       </c>
@@ -3547,68 +3547,12 @@
         <v>203</v>
       </c>
     </row>
-    <row r="13" s="1" customFormat="1" ht="137" customHeight="1" spans="1:2">
+    <row r="13" s="1" customFormat="1" ht="76" customHeight="1" spans="1:2">
       <c r="A13" s="1" t="s">
         <v>204</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>205</v>
-      </c>
-    </row>
-    <row r="14" s="1" customFormat="1" ht="76" customHeight="1" spans="1:2">
-      <c r="A14" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="15" s="1" customFormat="1" ht="76" customHeight="1" spans="1:2">
-      <c r="A15" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="16" s="1" customFormat="1" ht="76" customHeight="1" spans="1:2">
-      <c r="A16" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="17" s="1" customFormat="1" ht="76" customHeight="1" spans="1:2">
-      <c r="A17" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="18" s="1" customFormat="1" ht="76" customHeight="1" spans="1:2">
-      <c r="A18" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="19" s="1" customFormat="1" ht="76" customHeight="1" spans="1:2">
-      <c r="A19" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="20" s="1" customFormat="1" ht="76" customHeight="1" spans="1:2">
-      <c r="A20" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>219</v>
       </c>
     </row>
   </sheetData>
@@ -3620,10 +3564,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
@@ -3642,113 +3586,169 @@
     </row>
     <row r="2" customFormat="1" ht="161" customHeight="1" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>220</v>
+        <v>206</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>221</v>
+        <v>207</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" ht="131" customHeight="1" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>222</v>
+        <v>208</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>223</v>
+        <v>209</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" ht="131" customHeight="1" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>224</v>
+        <v>210</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>225</v>
+        <v>211</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" ht="131" customHeight="1" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>226</v>
+        <v>212</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>227</v>
+        <v>213</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" ht="131" customHeight="1" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>228</v>
+        <v>214</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>229</v>
+        <v>215</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" ht="131" customHeight="1" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>230</v>
+        <v>216</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>231</v>
+        <v>217</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" ht="174" customHeight="1" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>232</v>
+        <v>218</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>233</v>
+        <v>219</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" ht="163" customHeight="1" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>234</v>
+        <v>220</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>235</v>
+        <v>221</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" ht="76" customHeight="1" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>216</v>
+        <v>202</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>236</v>
+        <v>222</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" ht="207" customHeight="1" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>237</v>
+        <v>223</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>238</v>
+        <v>224</v>
       </c>
     </row>
     <row r="12" s="1" customFormat="1" ht="202" customHeight="1" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>240</v>
+        <v>226</v>
       </c>
     </row>
     <row r="13" s="1" customFormat="1" ht="303" customHeight="1" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>241</v>
+        <v>227</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>242</v>
+        <v>228</v>
       </c>
     </row>
     <row r="14" s="1" customFormat="1" ht="129" customHeight="1" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>243</v>
+        <v>229</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>244</v>
+        <v>230</v>
       </c>
     </row>
     <row r="15" s="1" customFormat="1" ht="129" customHeight="1" spans="1:2">
       <c r="A15" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="16" s="1" customFormat="1" ht="246" customHeight="1" spans="1:2">
+      <c r="A16" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="17" s="1" customFormat="1" ht="211" customHeight="1" spans="1:2">
+      <c r="A17" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="18" s="1" customFormat="1" ht="211" customHeight="1" spans="1:2">
+      <c r="A18" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="19" s="1" customFormat="1" ht="78" customHeight="1" spans="1:2">
+      <c r="A19" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="20" s="1" customFormat="1" ht="120" customHeight="1" spans="1:2">
+      <c r="A20" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="21" s="1" customFormat="1" ht="126" customHeight="1" spans="1:2">
+      <c r="A21" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="22" s="1" customFormat="1" ht="105" customHeight="1" spans="1:2">
+      <c r="A22" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B22" s="2" t="s">
         <v>246</v>
       </c>
     </row>

--- a/本地play_UI _easySoftWare/test_cases/欧拉社区UI自动化测试用例.xlsx
+++ b/本地play_UI _easySoftWare/test_cases/欧拉社区UI自动化测试用例.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="13815" windowHeight="13260" activeTab="4"/>
+    <workbookView windowWidth="15600" windowHeight="13260" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="248">
   <si>
     <t>测试案例名称</t>
   </si>
@@ -1262,92 +1262,6 @@
 退出登录</t>
   </si>
   <si>
-    <t>openEuler-首页-动态</t>
-  </si>
-  <si>
-    <t>进入生产环境
-鼠标悬浮用户
-点击新闻
-鼠标悬浮用户
-点击博客
-鼠标悬浮用户
-点击活动
-鼠标悬浮用户
-点击峰会
-鼠标悬浮用户
-点击月刊</t>
-  </si>
-  <si>
-    <t>openEuler-首页-交流</t>
-  </si>
-  <si>
-    <t>进入生产环境
-鼠标悬浮用户
-点击论坛
-鼠标悬浮用户
-点击邮件列表
-鼠标悬浮用户
-点击线上会议
-鼠标悬浮用户
-点击社交媒体</t>
-  </si>
-  <si>
-    <t>openEuler-主页-面向数字基础设施的开源操作系统</t>
-  </si>
-  <si>
-    <t>进入生产环境
-点击支持多样性设备
-点击覆盖全场景应用
-点击完整开发工具链
-点击立即体验</t>
-  </si>
-  <si>
-    <t>openEuler-主页-用户案例</t>
-  </si>
-  <si>
-    <t>进入生产环境
-点击金融
-点击运营商
-点击能源
-点击物流
-点击高校&amp;科研
-点击云计算
-点击其他
-点击查看更多</t>
-  </si>
-  <si>
-    <t>openEuler-主页-社区动态</t>
-  </si>
-  <si>
-    <t>进入生产环境
-点击查看贡献详情
-断言社区动态有数据</t>
-  </si>
-  <si>
-    <t>openEuler-主页-博客</t>
-  </si>
-  <si>
-    <t>进入生产环境
-点击查看更多
-断言主页博客有数据</t>
-  </si>
-  <si>
-    <t>openEuler-主页-新闻</t>
-  </si>
-  <si>
-    <t>进入生产环境
-点击查看更多
-断言主页新闻有数据</t>
-  </si>
-  <si>
-    <t>openEuler-主页-openEuler 开发者日历</t>
-  </si>
-  <si>
-    <t>进入生产环境
-会议详情收起与展开
-切换月份</t>
-  </si>
-  <si>
     <t>openEuler-主页-发布openEuler商业发行版的厂商</t>
   </si>
   <si>
@@ -1360,22 +1274,6 @@
   <si>
     <t>进入生产环境
 友情链接跳转官网</t>
-  </si>
-  <si>
-    <t>openEuler-主页-悬浮窗反馈</t>
-  </si>
-  <si>
-    <t>进入生产环境
-反馈成功</t>
-  </si>
-  <si>
-    <t>openEuler-主页-悬浮窗帮助</t>
-  </si>
-  <si>
-    <t>进入生产环境
-悬浮窗进入社区论坛
-悬浮窗进入QuickIssue
-悬浮窗进入FAQs</t>
   </si>
   <si>
     <t>openEuler-账号服务-登录&amp;退出登录</t>
@@ -1437,7 +1335,7 @@
 消息切页(2)</t>
   </si>
   <si>
-    <t>openEuler-首页-导航-用户-技术展示</t>
+    <t>openEuler-导航-用户-技术展示</t>
   </si>
   <si>
     <t>进入生产环境
@@ -1451,7 +1349,7 @@
 点击市场研究报告</t>
   </si>
   <si>
-    <t>openEuler-首页-导航-用户-使用指南</t>
+    <t>openEuler-导航-用户-使用指南</t>
   </si>
   <si>
     <t>进入生产环境
@@ -1467,11 +1365,7 @@
 点击运维专区</t>
   </si>
   <si>
-    <t>进入生产环境
-悬浮窗反馈(8,test)</t>
-  </si>
-  <si>
-    <t>openEuler-首页-导航-用户-支持与服务</t>
+    <t>openEuler-导航-用户-支持与服务</t>
   </si>
   <si>
     <t>进入生产环境
@@ -1490,7 +1384,7 @@
 点击兼容性列表</t>
   </si>
   <si>
-    <t>openEuler-首页-导航-开发者-学习与贡献</t>
+    <t>openEuler-导航-开发者-学习与贡献</t>
   </si>
   <si>
     <t>进入生产环境
@@ -1501,14 +1395,14 @@
 鼠标悬浮开发者
 点击贡献攻略(开发者)
 鼠标悬浮开发者
-点击SIG中心(社区)
+点击SIG中心(开发者)
 鼠标悬浮开发者
 点击开源实习
 鼠标悬浮开发者
 点击CLA签署</t>
   </si>
   <si>
-    <t>openEuler-首页-导航-开发者-开发openEuler</t>
+    <t>openEuler-导航-开发者-开发openEuler</t>
   </si>
   <si>
     <t>进入生产环境
@@ -1534,7 +1428,7 @@
 点击oecp</t>
   </si>
   <si>
-    <t>openEuler-首页-导航-开发者-在openEuler上开发</t>
+    <t>openEuler-导航-开发者-在openEuler上开发</t>
   </si>
   <si>
     <t>进入生产环境
@@ -1544,7 +1438,7 @@
 点击用户软件仓</t>
   </si>
   <si>
-    <t>openEuler-首页-导航-开发者-源码</t>
+    <t>openEuler-导航-开发者-源码</t>
   </si>
   <si>
     <t>进入生产环境
@@ -1556,7 +1450,7 @@
 点击Github镜像仓</t>
   </si>
   <si>
-    <t>openEuler-首页-导航-社区-关于社区</t>
+    <t>openEuler-导航-社区-关于社区</t>
   </si>
   <si>
     <t>进入生产环境
@@ -1578,7 +1472,7 @@
 点击贡献看板</t>
   </si>
   <si>
-    <t>openEuler-首页-导航-社区-学习与贡献</t>
+    <t>openEuler-导航-社区-学习与贡献</t>
   </si>
   <si>
     <t>进入生产环境
@@ -1596,7 +1490,7 @@
 点击人才评定</t>
   </si>
   <si>
-    <t>openEuler-首页-导航-社区-项目</t>
+    <t>openEuler-导航-社区-项目</t>
   </si>
   <si>
     <t>进入生产环境
@@ -1614,7 +1508,7 @@
 点击NestOS</t>
   </si>
   <si>
-    <t>openEuler-首页-导航-下载-获取方式</t>
+    <t>openEuler-导航-下载-获取方式</t>
   </si>
   <si>
     <t>进入生产环境
@@ -1622,7 +1516,7 @@
 点击获取openEuler操作系统</t>
   </si>
   <si>
-    <t>openEuler-首页-导航-下载-最新版本</t>
+    <t>openEuler-导航-下载-最新版本</t>
   </si>
   <si>
     <t>进入生产环境
@@ -1632,7 +1526,7 @@
 点击openEuler 24.09</t>
   </si>
   <si>
-    <t>openEuler-首页-导航-下载-其他版本</t>
+    <t>openEuler-导航-下载-其他版本</t>
   </si>
   <si>
     <t>进入生产环境
@@ -1642,12 +1536,126 @@
 点击商业发行版</t>
   </si>
   <si>
-    <t>openEuler-首页-导航-下载-下载服务</t>
+    <t>openEuler-导航-下载-下载服务</t>
   </si>
   <si>
     <t>进入生产环境
 鼠标悬浮下载
 点击镜像仓列表</t>
+  </si>
+  <si>
+    <t>openEuler-首页-导航-动态</t>
+  </si>
+  <si>
+    <t>进入生产环境
+鼠标悬浮用户
+点击新闻
+鼠标悬浮用户
+点击博客
+鼠标悬浮用户
+点击活动
+鼠标悬浮用户
+点击峰会
+鼠标悬浮用户
+点击月刊</t>
+  </si>
+  <si>
+    <t>openEuler-首页-导航-交流</t>
+  </si>
+  <si>
+    <t>进入生产环境
+鼠标悬浮用户
+点击论坛
+鼠标悬浮用户
+点击邮件列表
+鼠标悬浮用户
+点击线上会议
+鼠标悬浮用户
+点击社交媒体</t>
+  </si>
+  <si>
+    <t>openEuler-主页-面向数字基础设施的开源操作系统</t>
+  </si>
+  <si>
+    <t>进入生产环境
+点击支持多样性设备
+点击覆盖全场景应用
+点击完整开发工具链
+点击立即体验</t>
+  </si>
+  <si>
+    <t>openEuler-主页-用户案例</t>
+  </si>
+  <si>
+    <t>进入生产环境
+点击主页用户案例(金融)
+点击主页用户案例(运营商)
+点击主页用户案例(能源)
+点击主页用户案例(物流)
+点击主页用户案例(高校&amp;科研)
+点击主页用户案例(云计算)
+点击主页用户案例(其他)
+更多用户案例</t>
+  </si>
+  <si>
+    <t>openEuler-主页-社区动态</t>
+  </si>
+  <si>
+    <t>进入生产环境
+点击查看贡献详情
+断言社区动态有数据</t>
+  </si>
+  <si>
+    <t>openEuler-主页-博客</t>
+  </si>
+  <si>
+    <t>进入生产环境
+主页查看更多博客
+断言主页博客有数据</t>
+  </si>
+  <si>
+    <t>openEuler-主页-新闻</t>
+  </si>
+  <si>
+    <t>进入生产环境
+主页查看更多新闻
+断言主页新闻有数据</t>
+  </si>
+  <si>
+    <t>openEuler-主页-openEuler 开发者日历</t>
+  </si>
+  <si>
+    <t>进入生产环境
+日历类型切换
+会议详情收起与展开
+切换月份</t>
+  </si>
+  <si>
+    <t>openEuler-主页-悬浮窗帮助</t>
+  </si>
+  <si>
+    <t>进入生产环境
+悬浮窗进入社区论坛
+悬浮窗进入QuickIssue
+悬浮窗进入FAQs</t>
+  </si>
+  <si>
+    <t>openEuler-主页-悬浮窗反馈</t>
+  </si>
+  <si>
+    <t>进入生产环境
+悬浮窗反馈(8,test)</t>
+  </si>
+  <si>
+    <t>openEuler-页脚</t>
+  </si>
+  <si>
+    <t>进入生产环境
+开放原子开源基金会
+品牌
+隐私政策
+法律声明
+关于cookies</t>
   </si>
 </sst>
 </file>
@@ -3439,13 +3447,13 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="161" customHeight="1" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="161" customHeight="1" outlineLevelRow="2" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="64.875" customWidth="1"/>
     <col min="2" max="2" width="43.75" customWidth="1"/>
@@ -3459,7 +3467,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="159" customHeight="1" spans="1:2">
+    <row r="2" s="1" customFormat="1" ht="76" customHeight="1" spans="1:2">
       <c r="A2" s="1" t="s">
         <v>182</v>
       </c>
@@ -3467,92 +3475,12 @@
         <v>183</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="159" customHeight="1" spans="1:2">
+    <row r="3" s="1" customFormat="1" ht="76" customHeight="1" spans="1:2">
       <c r="A3" s="1" t="s">
         <v>184</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>185</v>
-      </c>
-    </row>
-    <row r="4" s="1" customFormat="1" ht="105" customHeight="1" spans="1:2">
-      <c r="A4" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="5" s="1" customFormat="1" ht="137" customHeight="1" spans="1:2">
-      <c r="A5" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="6" s="1" customFormat="1" ht="137" customHeight="1" spans="1:2">
-      <c r="A6" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="7" s="1" customFormat="1" ht="76" customHeight="1" spans="1:2">
-      <c r="A7" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="8" s="1" customFormat="1" ht="76" customHeight="1" spans="1:2">
-      <c r="A8" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="9" s="1" customFormat="1" ht="76" customHeight="1" spans="1:2">
-      <c r="A9" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="10" s="1" customFormat="1" ht="76" customHeight="1" spans="1:2">
-      <c r="A10" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="11" s="1" customFormat="1" ht="76" customHeight="1" spans="1:2">
-      <c r="A11" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="12" s="1" customFormat="1" ht="76" customHeight="1" spans="1:2">
-      <c r="A12" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="13" s="1" customFormat="1" ht="76" customHeight="1" spans="1:2">
-      <c r="A13" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>205</v>
       </c>
     </row>
   </sheetData>
@@ -3564,10 +3492,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:B32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
@@ -3586,170 +3514,250 @@
     </row>
     <row r="2" customFormat="1" ht="161" customHeight="1" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>206</v>
+        <v>186</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>207</v>
+        <v>187</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" ht="131" customHeight="1" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>208</v>
+        <v>188</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>209</v>
+        <v>189</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" ht="131" customHeight="1" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>210</v>
+        <v>190</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>211</v>
+        <v>191</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" ht="131" customHeight="1" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>212</v>
+        <v>192</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>213</v>
+        <v>193</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" ht="131" customHeight="1" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>214</v>
+        <v>194</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>215</v>
+        <v>195</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" ht="131" customHeight="1" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>216</v>
+        <v>196</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>217</v>
+        <v>197</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" ht="174" customHeight="1" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>218</v>
+        <v>198</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>219</v>
+        <v>199</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" ht="163" customHeight="1" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="10" s="1" customFormat="1" ht="76" customHeight="1" spans="1:2">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="10" s="1" customFormat="1" ht="207" customHeight="1" spans="1:2">
       <c r="A10" s="1" t="s">
         <v>202</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="11" s="1" customFormat="1" ht="207" customHeight="1" spans="1:2">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="11" s="1" customFormat="1" ht="202" customHeight="1" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>223</v>
+        <v>204</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="12" s="1" customFormat="1" ht="202" customHeight="1" spans="1:2">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="12" s="1" customFormat="1" ht="303" customHeight="1" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>225</v>
+        <v>206</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="13" s="1" customFormat="1" ht="303" customHeight="1" spans="1:2">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="13" s="1" customFormat="1" ht="129" customHeight="1" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>227</v>
+        <v>208</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>228</v>
+        <v>209</v>
       </c>
     </row>
     <row r="14" s="1" customFormat="1" ht="129" customHeight="1" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>229</v>
+        <v>210</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="15" s="1" customFormat="1" ht="129" customHeight="1" spans="1:2">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="15" s="1" customFormat="1" ht="246" customHeight="1" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>231</v>
+        <v>212</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="16" s="1" customFormat="1" ht="246" customHeight="1" spans="1:2">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="16" s="1" customFormat="1" ht="211" customHeight="1" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>233</v>
+        <v>214</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>234</v>
+        <v>215</v>
       </c>
     </row>
     <row r="17" s="1" customFormat="1" ht="211" customHeight="1" spans="1:2">
       <c r="A17" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="18" s="1" customFormat="1" ht="78" customHeight="1" spans="1:2">
+      <c r="A18" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="19" s="1" customFormat="1" ht="120" customHeight="1" spans="1:2">
+      <c r="A19" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="20" s="1" customFormat="1" ht="126" customHeight="1" spans="1:2">
+      <c r="A20" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="21" s="1" customFormat="1" ht="105" customHeight="1" spans="1:2">
+      <c r="A21" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="22" s="1" customFormat="1" ht="159" customHeight="1" spans="1:2">
+      <c r="A22" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="23" s="1" customFormat="1" ht="159" customHeight="1" spans="1:2">
+      <c r="A23" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="24" s="1" customFormat="1" ht="105" customHeight="1" spans="1:2">
+      <c r="A24" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="25" s="1" customFormat="1" ht="137" customHeight="1" spans="1:2">
+      <c r="A25" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="26" s="1" customFormat="1" ht="102" customHeight="1" spans="1:2">
+      <c r="A26" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B26" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="B17" s="2" t="s">
+    </row>
+    <row r="27" s="1" customFormat="1" ht="76" customHeight="1" spans="1:2">
+      <c r="A27" s="1" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="18" s="1" customFormat="1" ht="211" customHeight="1" spans="1:2">
-      <c r="A18" s="1" t="s">
+      <c r="B27" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="B18" s="2" t="s">
+    </row>
+    <row r="28" s="1" customFormat="1" ht="76" customHeight="1" spans="1:2">
+      <c r="A28" s="1" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="19" s="1" customFormat="1" ht="78" customHeight="1" spans="1:2">
-      <c r="A19" s="1" t="s">
+      <c r="B28" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="B19" s="2" t="s">
+    </row>
+    <row r="29" s="1" customFormat="1" ht="76" customHeight="1" spans="1:2">
+      <c r="A29" s="1" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="20" s="1" customFormat="1" ht="120" customHeight="1" spans="1:2">
-      <c r="A20" s="1" t="s">
+      <c r="B29" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="B20" s="2" t="s">
+    </row>
+    <row r="30" s="1" customFormat="1" ht="76" customHeight="1" spans="1:2">
+      <c r="A30" s="1" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="21" s="1" customFormat="1" ht="126" customHeight="1" spans="1:2">
-      <c r="A21" s="1" t="s">
+      <c r="B30" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="B21" s="2" t="s">
+    </row>
+    <row r="31" s="1" customFormat="1" ht="76" customHeight="1" spans="1:2">
+      <c r="A31" s="1" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="22" s="1" customFormat="1" ht="105" customHeight="1" spans="1:2">
-      <c r="A22" s="1" t="s">
+      <c r="B31" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="B22" s="2" t="s">
+    </row>
+    <row r="32" s="1" customFormat="1" ht="137" customHeight="1" spans="1:2">
+      <c r="A32" s="1" t="s">
         <v>246</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>247</v>
       </c>
     </row>
   </sheetData>

--- a/本地play_UI _easySoftWare/test_cases/欧拉社区UI自动化测试用例.xlsx
+++ b/本地play_UI _easySoftWare/test_cases/欧拉社区UI自动化测试用例.xlsx
@@ -3450,7 +3450,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A2" sqref="$A2:$XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="161" customHeight="1" outlineLevelRow="2" outlineLevelCol="1"/>
@@ -3494,8 +3494,8 @@
   <sheetPr/>
   <dimension ref="A1:B32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>

--- a/本地play_UI _easySoftWare/test_cases/欧拉社区UI自动化测试用例.xlsx
+++ b/本地play_UI _easySoftWare/test_cases/欧拉社区UI自动化测试用例.xlsx
@@ -3494,8 +3494,8 @@
   <sheetPr/>
   <dimension ref="A1:B32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>

--- a/本地play_UI _easySoftWare/test_cases/欧拉社区UI自动化测试用例.xlsx
+++ b/本地play_UI _easySoftWare/test_cases/欧拉社区UI自动化测试用例.xlsx
@@ -3494,8 +3494,8 @@
   <sheetPr/>
   <dimension ref="A1:B32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>

--- a/本地play_UI _easySoftWare/test_cases/欧拉社区UI自动化测试用例.xlsx
+++ b/本地play_UI _easySoftWare/test_cases/欧拉社区UI自动化测试用例.xlsx
@@ -3450,7 +3450,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="$A2:$XFD2"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="161" customHeight="1" outlineLevelRow="2" outlineLevelCol="1"/>
@@ -3494,8 +3494,8 @@
   <sheetPr/>
   <dimension ref="A1:B32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>

--- a/本地play_UI _easySoftWare/test_cases/欧拉社区UI自动化测试用例.xlsx
+++ b/本地play_UI _easySoftWare/test_cases/欧拉社区UI自动化测试用例.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15600" windowHeight="13260" activeTab="4"/>
+    <workbookView windowWidth="15600" windowHeight="13260" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="248">
   <si>
     <t>测试案例名称</t>
   </si>
@@ -1262,146 +1262,6 @@
 退出登录</t>
   </si>
   <si>
-    <t>openEuler-主页-发布openEuler商业发行版的厂商</t>
-  </si>
-  <si>
-    <t>进入生产环境
-商业发行版的厂商跳转官网</t>
-  </si>
-  <si>
-    <t>openEuler-主页-友情链接</t>
-  </si>
-  <si>
-    <t>进入生产环境
-友情链接跳转官网</t>
-  </si>
-  <si>
-    <t>openEuler-账号服务-登录&amp;退出登录</t>
-  </si>
-  <si>
-    <t>进入生产环境
-登录(18048976612,675912zl.@)
-退出登录</t>
-  </si>
-  <si>
-    <t>openEuler-主页-页面跳转</t>
-  </si>
-  <si>
-    <t>进入生产环境
-进入案例中心
-进入迁移专区
-进入社区论坛
-进入活动专区</t>
-  </si>
-  <si>
-    <t>openEuler-个人中心-更换头像</t>
-  </si>
-  <si>
-    <t>进入生产环境
-登录(18048976612,675912zl.@)
-进入个人中心
-更换头像(C:\Users\Administrator\Desktop\picture\1.jpg)</t>
-  </si>
-  <si>
-    <t>openEuler-个人中心-个人信息修改</t>
-  </si>
-  <si>
-    <t>进入生产环境
-登录(18048976612,675912zl.@)
-进入个人中心
-修改昵称(dsf321561465)
-修改公司(tester)</t>
-  </si>
-  <si>
-    <t>openEuler-个人中心-取消和重新签署协议</t>
-  </si>
-  <si>
-    <t>进入生产环境
-登录(18048976612,675912zl.@)
-进入个人中心
-取消签署协议
-登录并签署隐私声明(18048976612,675912zl.@)</t>
-  </si>
-  <si>
-    <t>openEuler-消息中心-消息中心操作</t>
-  </si>
-  <si>
-    <t>进入生产环境
-登录(18048976612,675912zl.@)
-进入消息中心
-选择Gitee消息
-消息标为已读
-消息分页(30条/页)
-消息切页(2)</t>
-  </si>
-  <si>
-    <t>openEuler-导航-用户-技术展示</t>
-  </si>
-  <si>
-    <t>进入生产环境
-鼠标悬浮用户
-点击用户案例
-鼠标悬浮用户
-点击技术白皮书
-鼠标悬浮用户
-点击行业白皮书
-鼠标悬浮用户
-点击市场研究报告</t>
-  </si>
-  <si>
-    <t>openEuler-导航-用户-使用指南</t>
-  </si>
-  <si>
-    <t>进入生产环境
-鼠标悬浮用户
-点击文档(用户)
-鼠标悬浮用户
-点击Man Pages
-鼠标悬浮用户
-点击课程中心(用户)
-鼠标悬浮用户
-点击迁移中心
-鼠标悬浮用户
-点击运维专区</t>
-  </si>
-  <si>
-    <t>openEuler-导航-用户-支持与服务</t>
-  </si>
-  <si>
-    <t>进入生产环境
-登录(18048976612,675912zl.@)
-鼠标悬浮用户
-点击软件中心
-鼠标悬浮用户
-点击兼容性技术测评
-鼠标悬浮用户
-点击安全中心
-鼠标悬浮用户
-点击缺陷中心
-鼠标悬浮用户
-点击OSV技术测评
-鼠标悬浮用户
-点击兼容性列表</t>
-  </si>
-  <si>
-    <t>openEuler-导航-开发者-学习与贡献</t>
-  </si>
-  <si>
-    <t>进入生产环境
-鼠标悬浮开发者
-点击文档(开发者)
-鼠标悬浮开发者
-点击课程中心(开发者)
-鼠标悬浮开发者
-点击贡献攻略(开发者)
-鼠标悬浮开发者
-点击SIG中心(开发者)
-鼠标悬浮开发者
-点击开源实习
-鼠标悬浮开发者
-点击CLA签署</t>
-  </si>
-  <si>
     <t>openEuler-导航-开发者-开发openEuler</t>
   </si>
   <si>
@@ -1426,6 +1286,146 @@
 点击OEPKGS
 鼠标悬浮开发者
 点击oecp</t>
+  </si>
+  <si>
+    <t>openEuler-主页-发布openEuler商业发行版的厂商</t>
+  </si>
+  <si>
+    <t>进入生产环境
+商业发行版的厂商跳转官网</t>
+  </si>
+  <si>
+    <t>openEuler-主页-友情链接</t>
+  </si>
+  <si>
+    <t>进入生产环境
+友情链接跳转官网</t>
+  </si>
+  <si>
+    <t>openEuler-账号服务-登录&amp;退出登录</t>
+  </si>
+  <si>
+    <t>进入生产环境
+登录(18048976612,675912zl.@)
+退出登录</t>
+  </si>
+  <si>
+    <t>openEuler-主页-页面跳转</t>
+  </si>
+  <si>
+    <t>进入生产环境
+进入案例中心
+进入迁移专区
+进入社区论坛
+进入活动专区</t>
+  </si>
+  <si>
+    <t>openEuler-个人中心-更换头像</t>
+  </si>
+  <si>
+    <t>进入生产环境
+登录(18048976612,675912zl.@)
+进入个人中心
+更换头像(C:\Users\Administrator\Desktop\picture\1.jpg)</t>
+  </si>
+  <si>
+    <t>openEuler-个人中心-个人信息修改</t>
+  </si>
+  <si>
+    <t>进入生产环境
+登录(18048976612,675912zl.@)
+进入个人中心
+修改昵称(dsf321561465)
+修改公司(tester)</t>
+  </si>
+  <si>
+    <t>openEuler-个人中心-取消和重新签署协议</t>
+  </si>
+  <si>
+    <t>进入生产环境
+登录(18048976612,675912zl.@)
+进入个人中心
+取消签署协议
+登录并签署隐私声明(18048976612,675912zl.@)</t>
+  </si>
+  <si>
+    <t>openEuler-消息中心-消息中心操作</t>
+  </si>
+  <si>
+    <t>进入生产环境
+登录(18048976612,675912zl.@)
+进入消息中心
+选择Gitee消息
+消息标为已读
+消息分页(30条/页)
+消息切页(2)</t>
+  </si>
+  <si>
+    <t>openEuler-导航-用户-技术展示</t>
+  </si>
+  <si>
+    <t>进入生产环境
+鼠标悬浮用户
+点击用户案例
+鼠标悬浮用户
+点击技术白皮书
+鼠标悬浮用户
+点击行业白皮书
+鼠标悬浮用户
+点击市场研究报告</t>
+  </si>
+  <si>
+    <t>openEuler-导航-用户-使用指南</t>
+  </si>
+  <si>
+    <t>进入生产环境
+鼠标悬浮用户
+点击文档(用户)
+鼠标悬浮用户
+点击Man Pages
+鼠标悬浮用户
+点击课程中心(用户)
+鼠标悬浮用户
+点击迁移中心
+鼠标悬浮用户
+点击运维专区</t>
+  </si>
+  <si>
+    <t>openEuler-导航-用户-支持与服务</t>
+  </si>
+  <si>
+    <t>进入生产环境
+登录(18048976612,675912zl.@)
+鼠标悬浮用户
+点击软件中心
+鼠标悬浮用户
+点击兼容性技术测评
+鼠标悬浮用户
+点击安全中心
+鼠标悬浮用户
+点击缺陷中心
+鼠标悬浮用户
+点击OSV技术测评
+鼠标悬浮用户
+点击兼容性列表</t>
+  </si>
+  <si>
+    <t>openEuler-导航-开发者-学习与贡献</t>
+  </si>
+  <si>
+    <t>进入生产环境
+鼠标悬浮开发者
+点击文档(开发者)
+鼠标悬浮开发者
+点击课程中心(开发者)
+鼠标悬浮开发者
+点击贡献攻略(开发者)
+鼠标悬浮开发者
+点击SIG中心(开发者)
+鼠标悬浮开发者
+点击开源实习
+鼠标悬浮开发者
+点击CLA签署</t>
   </si>
   <si>
     <t>openEuler-导航-开发者-在openEuler上开发</t>
@@ -3447,13 +3447,13 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="161" customHeight="1" outlineLevelRow="2" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="161" customHeight="1" outlineLevelRow="3" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="64.875" customWidth="1"/>
     <col min="2" max="2" width="43.75" customWidth="1"/>
@@ -3467,7 +3467,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="76" customHeight="1" spans="1:2">
+    <row r="2" s="1" customFormat="1" ht="303" customHeight="1" spans="1:2">
       <c r="A2" s="1" t="s">
         <v>182</v>
       </c>
@@ -3481,6 +3481,14 @@
       </c>
       <c r="B3" s="2" t="s">
         <v>185</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" ht="76" customHeight="1" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>187</v>
       </c>
     </row>
   </sheetData>
@@ -3494,8 +3502,8 @@
   <sheetPr/>
   <dimension ref="A1:B32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="A12" sqref="$A12:$XFD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
@@ -3514,90 +3522,90 @@
     </row>
     <row r="2" customFormat="1" ht="161" customHeight="1" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" ht="131" customHeight="1" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" ht="131" customHeight="1" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" ht="131" customHeight="1" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" ht="131" customHeight="1" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" ht="131" customHeight="1" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" ht="174" customHeight="1" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" ht="163" customHeight="1" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" ht="207" customHeight="1" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" ht="202" customHeight="1" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="12" s="1" customFormat="1" ht="303" customHeight="1" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>206</v>
+        <v>182</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>207</v>
+        <v>183</v>
       </c>
     </row>
     <row r="13" s="1" customFormat="1" ht="129" customHeight="1" spans="1:2">

--- a/本地play_UI _easySoftWare/test_cases/欧拉社区UI自动化测试用例.xlsx
+++ b/本地play_UI _easySoftWare/test_cases/欧拉社区UI自动化测试用例.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15600" windowHeight="13260" activeTab="3"/>
+    <workbookView windowWidth="15600" windowHeight="13260" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="248">
   <si>
     <t>测试案例名称</t>
   </si>
@@ -1262,32 +1262,6 @@
 退出登录</t>
   </si>
   <si>
-    <t>openEuler-导航-开发者-开发openEuler</t>
-  </si>
-  <si>
-    <t>进入生产环境
-鼠标悬浮开发者
-点击QuickIssue
-鼠标悬浮开发者
-点击软件包贡献
-鼠标悬浮开发者
-点击EulerTest
-鼠标悬浮开发者
-点击Compass-CI
-鼠标悬浮开发者
-点击EulerMaker
-鼠标悬浮开发者
-点击Pkgship
-鼠标悬浮开发者
-点击License工具门户
-鼠标悬浮开发者
-点击x2openEuler
-鼠标悬浮开发者
-点击OEPKGS
-鼠标悬浮开发者
-点击oecp</t>
-  </si>
-  <si>
     <t>openEuler-主页-发布openEuler商业发行版的厂商</t>
   </si>
   <si>
@@ -1426,6 +1400,23 @@
 点击开源实习
 鼠标悬浮开发者
 点击CLA签署</t>
+  </si>
+  <si>
+    <t>openEuler-导航-开发者-开发openEuler</t>
+  </si>
+  <si>
+    <t>进入生产环境
+鼠标悬浮开发者
+点击QuickIssue
+点击软件包贡献
+点击EulerTest
+点击Compass-CI
+点击EulerMaker
+点击Pkgship
+点击License工具门户
+点击x2openEuler
+点击OEPKGS
+点击oecp</t>
   </si>
   <si>
     <t>openEuler-导航-开发者-在openEuler上开发</t>
@@ -3447,13 +3438,13 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="161" customHeight="1" outlineLevelRow="3" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="161" customHeight="1" outlineLevelRow="2" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="64.875" customWidth="1"/>
     <col min="2" max="2" width="43.75" customWidth="1"/>
@@ -3467,7 +3458,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="303" customHeight="1" spans="1:2">
+    <row r="2" s="1" customFormat="1" ht="76" customHeight="1" spans="1:2">
       <c r="A2" s="1" t="s">
         <v>182</v>
       </c>
@@ -3481,14 +3472,6 @@
       </c>
       <c r="B3" s="2" t="s">
         <v>185</v>
-      </c>
-    </row>
-    <row r="4" s="1" customFormat="1" ht="76" customHeight="1" spans="1:2">
-      <c r="A4" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>187</v>
       </c>
     </row>
   </sheetData>
@@ -3502,8 +3485,8 @@
   <sheetPr/>
   <dimension ref="A1:B32"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="A12" sqref="$A12:$XFD12"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
@@ -3522,90 +3505,90 @@
     </row>
     <row r="2" customFormat="1" ht="161" customHeight="1" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" ht="131" customHeight="1" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" ht="131" customHeight="1" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" ht="131" customHeight="1" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" ht="131" customHeight="1" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" ht="131" customHeight="1" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" ht="174" customHeight="1" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" ht="163" customHeight="1" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" ht="207" customHeight="1" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" ht="202" customHeight="1" spans="1:2">
       <c r="A11" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="12" s="1" customFormat="1" ht="179" customHeight="1" spans="1:2">
+      <c r="A12" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B12" s="2" t="s">
         <v>207</v>
-      </c>
-    </row>
-    <row r="12" s="1" customFormat="1" ht="303" customHeight="1" spans="1:2">
-      <c r="A12" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="13" s="1" customFormat="1" ht="129" customHeight="1" spans="1:2">

--- a/本地play_UI _easySoftWare/test_cases/欧拉社区UI自动化测试用例.xlsx
+++ b/本地play_UI _easySoftWare/test_cases/欧拉社区UI自动化测试用例.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="163">
   <si>
     <t>测试案例名称</t>
   </si>
@@ -40,18 +40,16 @@
     <t>操作步骤</t>
   </si>
   <si>
-    <t>openEuler-首页-用户案例</t>
-  </si>
-  <si>
-    <t>进入生产环境
-点击主页用户案例(金融)
-点击主页用户案例(运营商)
-点击主页用户案例(能源)
-点击主页用户案例(物流)
-点击主页用户案例(高校&amp;科研)
-点击主页用户案例(云计算)
-点击主页用户案例(其他)
-查看更多</t>
+    <t>openEuler-页脚</t>
+  </si>
+  <si>
+    <t>进入生产环境
+跳过新手指引
+开放原子开源基金会
+品牌
+隐私政策
+法律声明
+关于cookies</t>
   </si>
   <si>
     <t>openEuler-导航-学习-课程中心</t>
@@ -452,9 +450,6 @@
 悬浮窗反馈(8,test)</t>
   </si>
   <si>
-    <t>openEuler-页脚</t>
-  </si>
-  <si>
     <t>进入生产环境
 开放原子开源基金会
 品牌
@@ -464,7 +459,7 @@
   </si>
   <si>
     <t>进入生产环境
-跳过新手转指引
+跳过新手指引
 登录(18048976612,675912zl.@)
 退出登录</t>
   </si>
@@ -798,16 +793,105 @@
 切换月份</t>
   </si>
   <si>
+    <t>openEuler-首页-用户案例</t>
+  </si>
+  <si>
+    <t>进入生产环境
+点击主页用户案例(金融)
+点击主页用户案例(运营商)
+点击主页用户案例(能源)
+点击主页用户案例(物流)
+点击主页用户案例(高校&amp;科研)
+点击主页用户案例(云计算)
+点击主页用户案例(其他)
+查看更多</t>
+  </si>
+  <si>
     <t>openEuler-首页-博客</t>
   </si>
   <si>
+    <t>进入生产环境
+首页断言博客数据
+首页查看更多博客</t>
+  </si>
+  <si>
     <t>openEuler-首页-新闻</t>
   </si>
   <si>
+    <t>进入生产环境
+首页断言新闻数据
+首页查看更多新闻</t>
+  </si>
+  <si>
     <t>openEuler-首页-悬浮窗帮助</t>
   </si>
   <si>
+    <t>进入生产环境
+跳过新手指引
+悬浮窗进入社区论坛
+悬浮窗进入QuickIssue
+悬浮窗进入FAQs</t>
+  </si>
+  <si>
     <t>openEuler-首页-悬浮窗反馈</t>
+  </si>
+  <si>
+    <t>openEuler-页脚-关于openEuler</t>
+  </si>
+  <si>
+    <t xml:space="preserve">进入生产环境
+进入页脚成员单位
+进入页脚组织架构
+进入页脚社区章程
+进入页脚贡献看板
+进入页脚社区介绍
+</t>
+  </si>
+  <si>
+    <t>openEuler-页脚-新闻与资讯</t>
+  </si>
+  <si>
+    <t>进入生产环境
+进入页脚新闻
+进入页脚博客
+进入页脚白皮书</t>
+  </si>
+  <si>
+    <t>openEuler-页脚-获取与下载</t>
+  </si>
+  <si>
+    <t>进入生产环境
+进入页脚获取openEuler操作系统
+进入页脚最新社区发行版
+进入页脚商业发行版
+进入页脚软件中心</t>
+  </si>
+  <si>
+    <t>openEuler-页脚-支持与服务</t>
+  </si>
+  <si>
+    <t>进入生产环境
+进入页脚文档
+进入页脚FAQ
+进入页脚联系我们</t>
+  </si>
+  <si>
+    <t>openEuler-页脚-互动与交流</t>
+  </si>
+  <si>
+    <t>进入生产环境
+进入页脚邮件列表
+进入页脚活动
+进入页脚论坛</t>
+  </si>
+  <si>
+    <t>openEuler-页脚-贡献与成长</t>
+  </si>
+  <si>
+    <t>进入生产环境
+进入页脚SIG中心
+进入页脚贡献攻略
+进入页脚课程中心</t>
   </si>
 </sst>
 </file>
@@ -1768,7 +1852,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B2" sqref="$A2:$XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="89" customHeight="1" outlineLevelRow="1" outlineLevelCol="1"/>
@@ -2187,10 +2271,10 @@
     </row>
     <row r="33" s="1" customFormat="1" ht="137" customHeight="1" spans="1:2">
       <c r="A33" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B33" s="2" t="s">
         <v>72</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -2202,10 +2286,10 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B49"/>
+  <dimension ref="A1:B55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="A45" sqref="A45"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
@@ -2227,7 +2311,7 @@
         <v>12</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" ht="131" customHeight="1" spans="1:2">
@@ -2267,47 +2351,47 @@
         <v>42</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" ht="113" customHeight="1" spans="1:2">
       <c r="A8" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>76</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" ht="163" customHeight="1" spans="1:2">
       <c r="A9" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>78</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" ht="163" customHeight="1" spans="1:2">
       <c r="A10" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>80</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" ht="163" customHeight="1" spans="1:2">
       <c r="A11" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>82</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="12" s="1" customFormat="1" ht="163" customHeight="1" spans="1:2">
       <c r="A12" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>84</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="13" s="1" customFormat="1" ht="108" customHeight="1" spans="1:2">
@@ -2315,7 +2399,7 @@
         <v>46</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="14" s="1" customFormat="1" ht="108" customHeight="1" spans="1:2">
@@ -2323,276 +2407,276 @@
         <v>48</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" s="1" customFormat="1" ht="180" customHeight="1" spans="1:2">
       <c r="A15" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>88</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="16" s="1" customFormat="1" ht="126" customHeight="1" spans="1:2">
       <c r="A16" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="17" s="1" customFormat="1" ht="258" customHeight="1" spans="1:2">
+    </row>
+    <row r="17" s="1" customFormat="1" ht="156" customHeight="1" spans="1:2">
       <c r="A17" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="18" s="1" customFormat="1" ht="92" customHeight="1" spans="1:2">
       <c r="A18" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B18" s="2" t="s">
+    </row>
+    <row r="19" s="1" customFormat="1" ht="106" customHeight="1" spans="1:2">
+      <c r="A19" s="1" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="19" s="1" customFormat="1" ht="153" customHeight="1" spans="1:2">
-      <c r="A19" s="1" t="s">
+      <c r="B19" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="B19" s="2" t="s">
+    </row>
+    <row r="20" s="1" customFormat="1" ht="95" customHeight="1" spans="1:2">
+      <c r="A20" s="1" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="20" s="1" customFormat="1" ht="153" customHeight="1" spans="1:2">
-      <c r="A20" s="1" t="s">
+      <c r="B20" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="B20" s="2" t="s">
+    </row>
+    <row r="21" s="1" customFormat="1" ht="98" customHeight="1" spans="1:2">
+      <c r="A21" s="1" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="21" s="1" customFormat="1" ht="153" customHeight="1" spans="1:2">
-      <c r="A21" s="1" t="s">
+      <c r="B21" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="B21" s="2" t="s">
+    </row>
+    <row r="22" s="1" customFormat="1" ht="111" customHeight="1" spans="1:2">
+      <c r="A22" s="1" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="22" s="1" customFormat="1" ht="153" customHeight="1" spans="1:2">
-      <c r="A22" s="1" t="s">
+      <c r="B22" s="2" t="s">
         <v>101</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="23" s="1" customFormat="1" ht="93" customHeight="1" spans="1:2">
       <c r="A23" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>103</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="24" s="1" customFormat="1" ht="93" customHeight="1" spans="1:2">
       <c r="A24" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>105</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="25" s="1" customFormat="1" ht="93" customHeight="1" spans="1:2">
       <c r="A25" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B25" s="2" t="s">
         <v>107</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="26" s="1" customFormat="1" ht="93" customHeight="1" spans="1:2">
       <c r="A26" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B26" s="2" t="s">
         <v>109</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="27" s="1" customFormat="1" ht="93" customHeight="1" spans="1:2">
       <c r="A27" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B27" s="2" t="s">
         <v>111</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="28" s="1" customFormat="1" ht="93" customHeight="1" spans="1:2">
       <c r="A28" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B28" s="2" t="s">
         <v>113</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="29" s="1" customFormat="1" ht="150" customHeight="1" spans="1:2">
       <c r="A29" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B29" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="B29" s="2" t="s">
+    </row>
+    <row r="30" s="1" customFormat="1" ht="76" customHeight="1" spans="1:2">
+      <c r="A30" s="1" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="30" s="1" customFormat="1" ht="150" customHeight="1" spans="1:2">
-      <c r="A30" s="1" t="s">
+      <c r="B30" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="B30" s="2" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="31" s="1" customFormat="1" ht="258" customHeight="1" spans="1:2">
+    </row>
+    <row r="31" s="1" customFormat="1" ht="159" customHeight="1" spans="1:2">
       <c r="A31" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="32" s="1" customFormat="1" ht="96" customHeight="1" spans="1:2">
       <c r="A32" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B32" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="B32" s="2" t="s">
+    </row>
+    <row r="33" s="1" customFormat="1" ht="173" customHeight="1" spans="1:2">
+      <c r="A33" s="1" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="33" s="1" customFormat="1" ht="258" customHeight="1" spans="1:2">
-      <c r="A33" s="1" t="s">
+      <c r="B33" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="B33" s="2" t="s">
+    </row>
+    <row r="34" s="1" customFormat="1" ht="177" customHeight="1" spans="1:2">
+      <c r="A34" s="1" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="34" s="1" customFormat="1" ht="258" customHeight="1" spans="1:2">
-      <c r="A34" s="1" t="s">
+      <c r="B34" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="B34" s="2" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="35" s="1" customFormat="1" ht="258" customHeight="1" spans="1:2">
+    </row>
+    <row r="35" s="1" customFormat="1" ht="147" customHeight="1" spans="1:2">
       <c r="A35" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B35" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="36" s="1" customFormat="1" ht="150" customHeight="1" spans="1:2">
+      <c r="A36" s="1" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="36" s="1" customFormat="1" ht="258" customHeight="1" spans="1:2">
-      <c r="A36" s="1" t="s">
+      <c r="B36" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="B36" s="2" t="s">
+    </row>
+    <row r="37" s="1" customFormat="1" ht="99" customHeight="1" spans="1:2">
+      <c r="A37" s="1" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="37" s="1" customFormat="1" ht="171" customHeight="1" spans="1:2">
-      <c r="A37" s="1" t="s">
+      <c r="B37" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="B37" s="2" t="s">
+    </row>
+    <row r="38" s="1" customFormat="1" ht="99" customHeight="1" spans="1:2">
+      <c r="A38" s="1" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="38" s="1" customFormat="1" ht="171" customHeight="1" spans="1:2">
-      <c r="A38" s="1" t="s">
+      <c r="B38" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="B38" s="2" t="s">
+    </row>
+    <row r="39" s="1" customFormat="1" ht="104" customHeight="1" spans="1:2">
+      <c r="A39" s="1" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="39" s="1" customFormat="1" ht="171" customHeight="1" spans="1:2">
-      <c r="A39" s="1" t="s">
+      <c r="B39" s="2" t="s">
         <v>133</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="40" s="1" customFormat="1" ht="105" customHeight="1" spans="1:2">
       <c r="A40" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B40" s="2" t="s">
         <v>135</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="41" s="1" customFormat="1" ht="137" customHeight="1" spans="1:2">
       <c r="A41" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B41" s="2" t="s">
         <v>137</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="42" s="1" customFormat="1" ht="102" customHeight="1" spans="1:2">
       <c r="A42" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B42" s="2" t="s">
         <v>139</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="43" s="1" customFormat="1" ht="76" customHeight="1" spans="1:2">
       <c r="A43" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B43" s="2" t="s">
         <v>141</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="44" s="1" customFormat="1" ht="137" customHeight="1" spans="1:2">
       <c r="A44" s="1" t="s">
-        <v>2</v>
+        <v>142</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>3</v>
+        <v>143</v>
       </c>
     </row>
     <row r="45" s="1" customFormat="1" ht="76" customHeight="1" spans="1:2">
       <c r="A45" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>63</v>
+        <v>145</v>
       </c>
     </row>
     <row r="46" s="1" customFormat="1" ht="76" customHeight="1" spans="1:2">
       <c r="A46" s="1" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>65</v>
+        <v>147</v>
       </c>
     </row>
     <row r="47" s="1" customFormat="1" ht="76" customHeight="1" spans="1:2">
       <c r="A47" s="1" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>69</v>
+        <v>149</v>
       </c>
     </row>
     <row r="48" s="1" customFormat="1" ht="76" customHeight="1" spans="1:2">
       <c r="A48" s="1" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>71</v>
@@ -2600,10 +2684,58 @@
     </row>
     <row r="49" s="1" customFormat="1" ht="137" customHeight="1" spans="1:2">
       <c r="A49" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="50" s="1" customFormat="1" ht="137" customHeight="1" spans="1:2">
+      <c r="A50" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="51" s="1" customFormat="1" ht="137" customHeight="1" spans="1:2">
+      <c r="A51" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="52" s="1" customFormat="1" ht="137" customHeight="1" spans="1:2">
+      <c r="A52" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="53" s="1" customFormat="1" ht="137" customHeight="1" spans="1:2">
+      <c r="A53" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="54" s="1" customFormat="1" ht="137" customHeight="1" spans="1:2">
+      <c r="A54" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="55" s="1" customFormat="1" ht="137" customHeight="1" spans="1:2">
+      <c r="A55" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B55" s="2" t="s">
         <v>72</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>73</v>
       </c>
     </row>
   </sheetData>

--- a/本地play_UI _easySoftWare/test_cases/欧拉社区UI自动化测试用例.xlsx
+++ b/本地play_UI _easySoftWare/test_cases/欧拉社区UI自动化测试用例.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="142">
   <si>
     <t>测试案例名称</t>
   </si>
@@ -40,31 +40,32 @@
     <t>操作步骤</t>
   </si>
   <si>
-    <t>openEuler-页脚</t>
+    <t>openEuler-页脚-友情链接</t>
   </si>
   <si>
     <t>进入生产环境
 跳过新手指引
-开放原子开源基金会
-品牌
-隐私政策
-法律声明
-关于cookies</t>
-  </si>
-  <si>
-    <t>openEuler-导航-学习-课程中心</t>
+木兰开源社区
+鲲鹏社区
+鲲鹏小智
+鹏城实验室
+infoQ
+开源社
+中科微调
+Authing
+openGauss
+昇思MindSpore
+Ebaina
+OSCHINA
+CSDN
+稀土掘金
+bilibili
+头条</t>
   </si>
   <si>
     <t>进入生产环境
 跳过新手指引
-点击课程中心
-点击开始学习(HCIA)
-点击报名考试(HCIA)
-点击openEuler精品课程
-点击开始学习(openEuler安全知识培训)
-点击报名考试(openEuler安全知识培训)
-点击Tutorials
-点击openEuler直播</t>
+友情链接</t>
   </si>
   <si>
     <t>openEuler-主页-banner切换</t>
@@ -450,6 +451,9 @@
 悬浮窗反馈(8,test)</t>
   </si>
   <si>
+    <t>openEuler-页脚</t>
+  </si>
+  <si>
     <t>进入生产环境
 开放原子开源基金会
 品牌
@@ -470,13 +474,7 @@
 点击容器镜像
 点击Windows
 点击Virtualization
-点击Raspberry Pi</t>
-  </si>
-  <si>
-    <t>openEuler-导航-下载-获取方式-快捷链接</t>
-  </si>
-  <si>
-    <t>进入生产环境
+点击Raspberry Pi
 点击openEuler 24.03 LTS(获取方式快捷链接)
 点击openEuler repo 源
 点击镜像仓列表(获取方式)</t>
@@ -485,36 +483,19 @@
     <t>openEuler-导航-下载-社区发行版-01</t>
   </si>
   <si>
-    <t>进入生产环境
+    <t xml:space="preserve">进入生产环境
 点击openEuler 24.03 LTS(社区发行版)
-openEuler 24.03 LTS场景筛选</t>
-  </si>
-  <si>
-    <t>openEuler-导航-下载-社区发行版-02</t>
-  </si>
-  <si>
-    <t>进入生产环境
+openEuler 24.03 LTS场景筛选
 点击openEuler 24.09
-openEuler 24.09场景筛选</t>
-  </si>
-  <si>
-    <t>openEuler-导航-下载-社区发行版-03</t>
-  </si>
-  <si>
-    <t>进入生产环境
+openEuler 24.09场景筛选
 点击openEuler 22.03 LTS SP4
-openEuler 22.03 LTS SP4场景筛选</t>
-  </si>
-  <si>
-    <t>openEuler-导航-下载-社区发行版-快捷链接</t>
-  </si>
-  <si>
-    <t>进入生产环境
+openEuler 22.03 LTS SP4场景筛选
 点击技术白皮书
 点击24.03 LTS安装指南
 点击24.09安装指南
 点击版本生命周期
-点击查询历史版本</t>
+点击查询历史版本
+</t>
   </si>
   <si>
     <t>进入生产环境
@@ -535,17 +516,14 @@
 点击热门文档
 点击开发教程
 点击流程规范
-点击工具查询</t>
-  </si>
-  <si>
-    <t>openEuler-导航-学习-文档中心-快捷链接</t>
-  </si>
-  <si>
-    <t>进入生产环境
+点击工具查询
 点击24.03LTS文档
 点击安装升级
 点击文档撰写指南
 点击Man Pages</t>
+  </si>
+  <si>
+    <t>openEuler-导航-学习-课程中心</t>
   </si>
   <si>
     <t>进入生产环境
@@ -556,13 +534,7 @@
 点击开始学习(openEuler安全知识培训)
 点击报名考试(openEuler安全知识培训)
 点击Tutorials
-点击openEuler直播</t>
-  </si>
-  <si>
-    <t>openEuler-导航-学习-课程中心-快捷链接</t>
-  </si>
-  <si>
-    <t>进入生产环境
+点击openEuler直播
 点击从入门到精通-openEuler操作系统迁移专题</t>
   </si>
   <si>
@@ -571,13 +543,7 @@
   <si>
     <t>进入生产环境
 进入迁移专区
-进入运维专区</t>
-  </si>
-  <si>
-    <t>openEuler-导航-学习-迁移与运维-快捷链接</t>
-  </si>
-  <si>
-    <t>进入生产环境
+进入运维专区
 点击迁移工具x2openEuler
 点击迁移实践</t>
   </si>
@@ -637,13 +603,7 @@
   <si>
     <t>进入生产环境
 进入兼容性列表
-进入兼容性技术测评</t>
-  </si>
-  <si>
-    <t>openEuler-导航-支持-兼容性专区-快捷链接</t>
-  </si>
-  <si>
-    <t>进入生产环境
+进入兼容性技术测评
 点击openEuler 硬件兼容性测试整体介绍</t>
   </si>
   <si>
@@ -655,13 +615,7 @@
 进入OSV技术测评
 进入安全中心
 进入缺陷中心
-进入FAQ常见问题</t>
-  </si>
-  <si>
-    <t>openEuler-导航-支持-支持与服务-快捷链接</t>
-  </si>
-  <si>
-    <t>进入生产环境
+进入FAQ常见问题
 进入OSV技术测评整体介绍
 进入QuickIssue(支持与服务)</t>
   </si>
@@ -673,13 +627,7 @@
 进入社区荣誉
 进入oEEP
 进入城市用户组
-进入贡献看板</t>
-  </si>
-  <si>
-    <t>openEuler-导航-社区-关于社区-快捷链接</t>
-  </si>
-  <si>
-    <t>进入生产环境
+进入贡献看板
 进入openEuler社区介绍PDF</t>
   </si>
   <si>
@@ -692,13 +640,7 @@
 进入CLA签署
 进入高校
 进入人才培养
-进入开源实习</t>
-  </si>
-  <si>
-    <t>openEuler-导航-社区-贡献与成长-快捷链接</t>
-  </si>
-  <si>
-    <t>进入生产环境
+进入开源实习
 进入企业签署CLA流程
 进入CLA-FAQ
 进入开发者日历
@@ -788,7 +730,6 @@
   </si>
   <si>
     <t>进入生产环境
-跳过新手指引
 日历类型切换
 切换月份</t>
   </si>
@@ -823,17 +764,14 @@
 首页查看更多新闻</t>
   </si>
   <si>
-    <t>openEuler-首页-悬浮窗帮助</t>
-  </si>
-  <si>
-    <t>进入生产环境
-跳过新手指引
+    <t>openEuler-首页-悬浮窗</t>
+  </si>
+  <si>
+    <t>进入生产环境
 悬浮窗进入社区论坛
 悬浮窗进入QuickIssue
-悬浮窗进入FAQs</t>
-  </si>
-  <si>
-    <t>openEuler-首页-悬浮窗反馈</t>
+悬浮窗进入FAQs
+悬浮窗反馈(8,test)</t>
   </si>
   <si>
     <t>openEuler-页脚-关于openEuler</t>
@@ -892,6 +830,10 @@
 进入页脚SIG中心
 进入页脚贡献攻略
 进入页脚课程中心</t>
+  </si>
+  <si>
+    <t>进入生产环境
+友情链接</t>
   </si>
 </sst>
 </file>
@@ -1851,8 +1793,8 @@
   <sheetPr/>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B2" sqref="$A2:$XFD2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="$A2:$XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="89" customHeight="1" outlineLevelRow="1" outlineLevelCol="1"/>
@@ -1870,7 +1812,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="137" customHeight="1" spans="1:2">
+    <row r="2" s="1" customFormat="1" ht="270" customHeight="1" spans="1:2">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1890,8 +1832,8 @@
   <sheetPr/>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="$A2:$XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="316" customHeight="1" outlineLevelRow="1" outlineLevelCol="1"/>
@@ -1909,12 +1851,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="258" customHeight="1" spans="1:2">
+    <row r="2" s="1" customFormat="1" ht="270" customHeight="1" spans="1:2">
       <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>4</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1970,26 +1912,26 @@
     </row>
     <row r="2" s="1" customFormat="1" ht="120" customHeight="1" spans="1:2">
       <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" ht="76" customHeight="1" spans="1:2">
       <c r="A3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" ht="76" customHeight="1" spans="1:2">
       <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -2023,255 +1965,255 @@
     </row>
     <row r="2" customFormat="1" ht="161" customHeight="1" spans="1:2">
       <c r="A2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" ht="131" customHeight="1" spans="1:2">
       <c r="A3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>14</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" ht="131" customHeight="1" spans="1:2">
       <c r="A4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" ht="131" customHeight="1" spans="1:2">
       <c r="A5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" ht="131" customHeight="1" spans="1:2">
       <c r="A6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" ht="174" customHeight="1" spans="1:2">
       <c r="A7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" ht="163" customHeight="1" spans="1:2">
       <c r="A8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" ht="207" customHeight="1" spans="1:2">
       <c r="A9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" ht="202" customHeight="1" spans="1:2">
       <c r="A10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" ht="179" customHeight="1" spans="1:2">
       <c r="A11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="12" s="1" customFormat="1" ht="129" customHeight="1" spans="1:2">
       <c r="A12" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="13" s="1" customFormat="1" ht="129" customHeight="1" spans="1:2">
       <c r="A13" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="14" s="1" customFormat="1" ht="246" customHeight="1" spans="1:2">
       <c r="A14" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>36</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="15" s="1" customFormat="1" ht="211" customHeight="1" spans="1:2">
       <c r="A15" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>38</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="16" s="1" customFormat="1" ht="211" customHeight="1" spans="1:2">
       <c r="A16" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="17" s="1" customFormat="1" ht="78" customHeight="1" spans="1:2">
       <c r="A17" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>42</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="18" s="1" customFormat="1" ht="120" customHeight="1" spans="1:2">
       <c r="A18" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="19" s="1" customFormat="1" ht="126" customHeight="1" spans="1:2">
       <c r="A19" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>46</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="20" s="1" customFormat="1" ht="105" customHeight="1" spans="1:2">
       <c r="A20" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>48</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="21" s="1" customFormat="1" ht="159" customHeight="1" spans="1:2">
       <c r="A21" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>50</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="22" s="1" customFormat="1" ht="159" customHeight="1" spans="1:2">
       <c r="A22" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>52</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="23" s="1" customFormat="1" ht="120" customHeight="1" spans="1:2">
       <c r="A23" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="24" s="1" customFormat="1" ht="131" customHeight="1" spans="1:2">
       <c r="A24" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>54</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="25" s="1" customFormat="1" ht="105" customHeight="1" spans="1:2">
       <c r="A25" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B25" s="2" t="s">
         <v>56</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="26" s="1" customFormat="1" ht="137" customHeight="1" spans="1:2">
       <c r="A26" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B26" s="2" t="s">
         <v>58</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="27" s="1" customFormat="1" ht="102" customHeight="1" spans="1:2">
       <c r="A27" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B27" s="2" t="s">
         <v>60</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="28" s="1" customFormat="1" ht="76" customHeight="1" spans="1:2">
       <c r="A28" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B28" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="29" s="1" customFormat="1" ht="76" customHeight="1" spans="1:2">
       <c r="A29" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B29" s="2" t="s">
         <v>64</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="30" s="1" customFormat="1" ht="76" customHeight="1" spans="1:2">
       <c r="A30" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B30" s="2" t="s">
         <v>66</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="31" s="1" customFormat="1" ht="76" customHeight="1" spans="1:2">
       <c r="A31" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B31" s="2" t="s">
         <v>68</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="32" s="1" customFormat="1" ht="76" customHeight="1" spans="1:2">
       <c r="A32" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B32" s="2" t="s">
         <v>70</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="33" s="1" customFormat="1" ht="137" customHeight="1" spans="1:2">
       <c r="A33" s="1" t="s">
-        <v>2</v>
+        <v>71</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>72</v>
@@ -2286,10 +2228,10 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B55"/>
+  <dimension ref="A1:B44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="A44" sqref="A44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
@@ -2308,7 +2250,7 @@
     </row>
     <row r="2" customFormat="1" ht="95" customHeight="1" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>73</v>
@@ -2316,45 +2258,45 @@
     </row>
     <row r="3" s="1" customFormat="1" ht="131" customHeight="1" spans="1:2">
       <c r="A3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>14</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" ht="131" customHeight="1" spans="1:2">
       <c r="A4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" ht="131" customHeight="1" spans="1:2">
       <c r="A5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" ht="131" customHeight="1" spans="1:2">
       <c r="A6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" ht="205" customHeight="1" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="8" s="1" customFormat="1" ht="113" customHeight="1" spans="1:2">
+    <row r="8" s="1" customFormat="1" ht="189" customHeight="1" spans="1:2">
       <c r="A8" s="1" t="s">
         <v>75</v>
       </c>
@@ -2362,55 +2304,55 @@
         <v>76</v>
       </c>
     </row>
-    <row r="9" s="1" customFormat="1" ht="163" customHeight="1" spans="1:2">
+    <row r="9" s="1" customFormat="1" ht="108" customHeight="1" spans="1:2">
       <c r="A9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="B9" s="2" t="s">
+    </row>
+    <row r="10" s="1" customFormat="1" ht="108" customHeight="1" spans="1:2">
+      <c r="A10" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="10" s="1" customFormat="1" ht="163" customHeight="1" spans="1:2">
-      <c r="A10" s="1" t="s">
+    <row r="11" s="1" customFormat="1" ht="180" customHeight="1" spans="1:2">
+      <c r="A11" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B11" s="2" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="11" s="1" customFormat="1" ht="163" customHeight="1" spans="1:2">
-      <c r="A11" s="1" t="s">
+    <row r="12" s="1" customFormat="1" ht="156" customHeight="1" spans="1:2">
+      <c r="A12" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B12" s="2" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="12" s="1" customFormat="1" ht="163" customHeight="1" spans="1:2">
-      <c r="A12" s="1" t="s">
+    <row r="13" s="1" customFormat="1" ht="106" customHeight="1" spans="1:2">
+      <c r="A13" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B13" s="2" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="13" s="1" customFormat="1" ht="108" customHeight="1" spans="1:2">
-      <c r="A13" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B13" s="2" t="s">
+    <row r="14" s="1" customFormat="1" ht="98" customHeight="1" spans="1:2">
+      <c r="A14" s="1" t="s">
         <v>85</v>
-      </c>
-    </row>
-    <row r="14" s="1" customFormat="1" ht="108" customHeight="1" spans="1:2">
-      <c r="A14" s="1" t="s">
-        <v>48</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="15" s="1" customFormat="1" ht="180" customHeight="1" spans="1:2">
+    <row r="15" s="1" customFormat="1" ht="111" customHeight="1" spans="1:2">
       <c r="A15" s="1" t="s">
         <v>87</v>
       </c>
@@ -2418,7 +2360,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="16" s="1" customFormat="1" ht="126" customHeight="1" spans="1:2">
+    <row r="16" s="1" customFormat="1" ht="93" customHeight="1" spans="1:2">
       <c r="A16" s="1" t="s">
         <v>89</v>
       </c>
@@ -2426,55 +2368,55 @@
         <v>90</v>
       </c>
     </row>
-    <row r="17" s="1" customFormat="1" ht="156" customHeight="1" spans="1:2">
+    <row r="17" s="1" customFormat="1" ht="93" customHeight="1" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>4</v>
+        <v>91</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="18" s="1" customFormat="1" ht="92" customHeight="1" spans="1:2">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="18" s="1" customFormat="1" ht="93" customHeight="1" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="19" s="1" customFormat="1" ht="106" customHeight="1" spans="1:2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="19" s="1" customFormat="1" ht="93" customHeight="1" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="20" s="1" customFormat="1" ht="95" customHeight="1" spans="1:2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="20" s="1" customFormat="1" ht="93" customHeight="1" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="21" s="1" customFormat="1" ht="98" customHeight="1" spans="1:2">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="21" s="1" customFormat="1" ht="150" customHeight="1" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="22" s="1" customFormat="1" ht="111" customHeight="1" spans="1:2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" s="1" customFormat="1" ht="159" customHeight="1" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>100</v>
+        <v>35</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="23" s="1" customFormat="1" ht="93" customHeight="1" spans="1:2">
+    <row r="23" s="1" customFormat="1" ht="173" customHeight="1" spans="1:2">
       <c r="A23" s="1" t="s">
         <v>102</v>
       </c>
@@ -2482,71 +2424,71 @@
         <v>103</v>
       </c>
     </row>
-    <row r="24" s="1" customFormat="1" ht="93" customHeight="1" spans="1:2">
+    <row r="24" s="1" customFormat="1" ht="147" customHeight="1" spans="1:2">
       <c r="A24" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B24" s="2" t="s">
+    </row>
+    <row r="25" s="1" customFormat="1" ht="150" customHeight="1" spans="1:2">
+      <c r="A25" s="1" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="25" s="1" customFormat="1" ht="93" customHeight="1" spans="1:2">
-      <c r="A25" s="1" t="s">
+      <c r="B25" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B25" s="2" t="s">
+    </row>
+    <row r="26" s="1" customFormat="1" ht="99" customHeight="1" spans="1:2">
+      <c r="A26" s="1" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="26" s="1" customFormat="1" ht="93" customHeight="1" spans="1:2">
-      <c r="A26" s="1" t="s">
+      <c r="B26" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B26" s="2" t="s">
+    </row>
+    <row r="27" s="1" customFormat="1" ht="99" customHeight="1" spans="1:2">
+      <c r="A27" s="1" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="27" s="1" customFormat="1" ht="93" customHeight="1" spans="1:2">
-      <c r="A27" s="1" t="s">
+      <c r="B27" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="B27" s="2" t="s">
+    </row>
+    <row r="28" s="1" customFormat="1" ht="104" customHeight="1" spans="1:2">
+      <c r="A28" s="1" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="28" s="1" customFormat="1" ht="93" customHeight="1" spans="1:2">
-      <c r="A28" s="1" t="s">
+      <c r="B28" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="B28" s="2" t="s">
+    </row>
+    <row r="29" s="1" customFormat="1" ht="105" customHeight="1" spans="1:2">
+      <c r="A29" s="1" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="29" s="1" customFormat="1" ht="150" customHeight="1" spans="1:2">
-      <c r="A29" s="1" t="s">
+      <c r="B29" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="B29" s="2" t="s">
+    </row>
+    <row r="30" s="1" customFormat="1" ht="137" customHeight="1" spans="1:2">
+      <c r="A30" s="1" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="30" s="1" customFormat="1" ht="76" customHeight="1" spans="1:2">
-      <c r="A30" s="1" t="s">
+      <c r="B30" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="B30" s="2" t="s">
+    </row>
+    <row r="31" s="1" customFormat="1" ht="102" customHeight="1" spans="1:2">
+      <c r="A31" s="1" t="s">
         <v>117</v>
-      </c>
-    </row>
-    <row r="31" s="1" customFormat="1" ht="159" customHeight="1" spans="1:2">
-      <c r="A31" s="1" t="s">
-        <v>36</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="32" s="1" customFormat="1" ht="96" customHeight="1" spans="1:2">
+    <row r="32" s="1" customFormat="1" ht="76" customHeight="1" spans="1:2">
       <c r="A32" s="1" t="s">
         <v>119</v>
       </c>
@@ -2554,7 +2496,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="33" s="1" customFormat="1" ht="173" customHeight="1" spans="1:2">
+    <row r="33" s="1" customFormat="1" ht="137" customHeight="1" spans="1:2">
       <c r="A33" s="1" t="s">
         <v>121</v>
       </c>
@@ -2562,7 +2504,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="34" s="1" customFormat="1" ht="177" customHeight="1" spans="1:2">
+    <row r="34" s="1" customFormat="1" ht="76" customHeight="1" spans="1:2">
       <c r="A34" s="1" t="s">
         <v>123</v>
       </c>
@@ -2570,172 +2512,84 @@
         <v>124</v>
       </c>
     </row>
-    <row r="35" s="1" customFormat="1" ht="147" customHeight="1" spans="1:2">
+    <row r="35" s="1" customFormat="1" ht="76" customHeight="1" spans="1:2">
       <c r="A35" s="1" t="s">
-        <v>40</v>
+        <v>125</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="36" s="1" customFormat="1" ht="150" customHeight="1" spans="1:2">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="36" s="1" customFormat="1" ht="76" customHeight="1" spans="1:2">
       <c r="A36" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="37" s="1" customFormat="1" ht="99" customHeight="1" spans="1:2">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="37" s="1" customFormat="1" ht="137" customHeight="1" spans="1:2">
       <c r="A37" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="38" s="1" customFormat="1" ht="99" customHeight="1" spans="1:2">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="38" s="1" customFormat="1" ht="137" customHeight="1" spans="1:2">
       <c r="A38" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="39" s="1" customFormat="1" ht="104" customHeight="1" spans="1:2">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="39" s="1" customFormat="1" ht="137" customHeight="1" spans="1:2">
       <c r="A39" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="40" s="1" customFormat="1" ht="105" customHeight="1" spans="1:2">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="40" s="1" customFormat="1" ht="137" customHeight="1" spans="1:2">
       <c r="A40" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="41" s="1" customFormat="1" ht="137" customHeight="1" spans="1:2">
       <c r="A41" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="42" s="1" customFormat="1" ht="102" customHeight="1" spans="1:2">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="42" s="1" customFormat="1" ht="137" customHeight="1" spans="1:2">
       <c r="A42" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="43" s="1" customFormat="1" ht="76" customHeight="1" spans="1:2">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="43" s="1" customFormat="1" ht="137" customHeight="1" spans="1:2">
       <c r="A43" s="1" t="s">
-        <v>140</v>
+        <v>71</v>
       </c>
       <c r="B43" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="44" s="1" customFormat="1" ht="270" customHeight="1" spans="1:2">
+      <c r="A44" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B44" s="2" t="s">
         <v>141</v>
-      </c>
-    </row>
-    <row r="44" s="1" customFormat="1" ht="137" customHeight="1" spans="1:2">
-      <c r="A44" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="45" s="1" customFormat="1" ht="76" customHeight="1" spans="1:2">
-      <c r="A45" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="46" s="1" customFormat="1" ht="76" customHeight="1" spans="1:2">
-      <c r="A46" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="47" s="1" customFormat="1" ht="76" customHeight="1" spans="1:2">
-      <c r="A47" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="48" s="1" customFormat="1" ht="76" customHeight="1" spans="1:2">
-      <c r="A48" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="49" s="1" customFormat="1" ht="137" customHeight="1" spans="1:2">
-      <c r="A49" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="50" s="1" customFormat="1" ht="137" customHeight="1" spans="1:2">
-      <c r="A50" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="51" s="1" customFormat="1" ht="137" customHeight="1" spans="1:2">
-      <c r="A51" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="52" s="1" customFormat="1" ht="137" customHeight="1" spans="1:2">
-      <c r="A52" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="53" s="1" customFormat="1" ht="137" customHeight="1" spans="1:2">
-      <c r="A53" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="54" s="1" customFormat="1" ht="137" customHeight="1" spans="1:2">
-      <c r="A54" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="55" s="1" customFormat="1" ht="137" customHeight="1" spans="1:2">
-      <c r="A55" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>72</v>
       </c>
     </row>
   </sheetData>

--- a/本地play_UI _easySoftWare/test_cases/欧拉社区UI自动化测试用例.xlsx
+++ b/本地play_UI _easySoftWare/test_cases/欧拉社区UI自动化测试用例.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="142">
   <si>
     <t>测试案例名称</t>
   </si>
@@ -40,32 +40,15 @@
     <t>操作步骤</t>
   </si>
   <si>
-    <t>openEuler-页脚-友情链接</t>
-  </si>
-  <si>
-    <t>进入生产环境
-跳过新手指引
-木兰开源社区
-鲲鹏社区
-鲲鹏小智
-鹏城实验室
-infoQ
-开源社
-中科微调
-Authing
-openGauss
-昇思MindSpore
-Ebaina
-OSCHINA
-CSDN
-稀土掘金
-bilibili
-头条</t>
+    <t>openEuler-导航-社区-关于社区</t>
   </si>
   <si>
     <t>进入生产环境
 跳过新手指引
 友情链接</t>
+  </si>
+  <si>
+    <t>openEuler-页脚-友情链接</t>
   </si>
   <si>
     <t>openEuler-主页-banner切换</t>
@@ -242,9 +225,6 @@
 点击软件包仓
 鼠标悬浮开发者
 点击Github镜像仓</t>
-  </si>
-  <si>
-    <t>openEuler-导航-社区-关于社区</t>
   </si>
   <si>
     <t>进入生产环境
@@ -462,10 +442,30 @@
 关于cookies</t>
   </si>
   <si>
-    <t>进入生产环境
-跳过新手指引
+    <t>openEuler-新手指引</t>
+  </si>
+  <si>
+    <t>进入生产环境
+新手指引</t>
+  </si>
+  <si>
+    <t>openEuler-个人中心-信息修改</t>
+  </si>
+  <si>
+    <t>进入生产环境
 登录(18048976612,675912zl.@)
-退出登录</t>
+进入个人中心
+更换头像(C:\Users\Administrator\Desktop\picture\1.jpg)
+修改昵称(klsdnflksdf)
+修改公司(tsdfsd)</t>
+  </si>
+  <si>
+    <t>进入生产环境
+登录(18048976612,675912zl.@)
+进入消息中心
+消息标为已读
+消息分页(30条/页)
+消息切页(2)</t>
   </si>
   <si>
     <t>进入生产环境
@@ -480,10 +480,10 @@
 点击镜像仓列表(获取方式)</t>
   </si>
   <si>
-    <t>openEuler-导航-下载-社区发行版-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">进入生产环境
+    <t>openEuler-导航-下载-社区发行版</t>
+  </si>
+  <si>
+    <t>进入生产环境
 点击openEuler 24.03 LTS(社区发行版)
 openEuler 24.03 LTS场景筛选
 点击openEuler 24.09
@@ -494,8 +494,7 @@
 点击24.03 LTS安装指南
 点击24.09安装指南
 点击版本生命周期
-点击查询历史版本
-</t>
+点击查询历史版本</t>
   </si>
   <si>
     <t>进入生产环境
@@ -748,30 +747,17 @@
 查看更多</t>
   </si>
   <si>
-    <t>openEuler-首页-博客</t>
+    <t>openEuler-首页-博客和新闻</t>
   </si>
   <si>
     <t>进入生产环境
 首页断言博客数据
-首页查看更多博客</t>
-  </si>
-  <si>
-    <t>openEuler-首页-新闻</t>
-  </si>
-  <si>
-    <t>进入生产环境
+首页查看更多博客
 首页断言新闻数据
 首页查看更多新闻</t>
   </si>
   <si>
     <t>openEuler-首页-悬浮窗</t>
-  </si>
-  <si>
-    <t>进入生产环境
-悬浮窗进入社区论坛
-悬浮窗进入QuickIssue
-悬浮窗进入FAQs
-悬浮窗反馈(8,test)</t>
   </si>
   <si>
     <t>openEuler-页脚-关于openEuler</t>
@@ -1793,8 +1779,8 @@
   <sheetPr/>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="$A2:$XFD2"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="89" customHeight="1" outlineLevelRow="1" outlineLevelCol="1"/>
@@ -1812,7 +1798,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="270" customHeight="1" spans="1:2">
+    <row r="2" s="1" customFormat="1" ht="159" customHeight="1" spans="1:2">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1853,10 +1839,10 @@
     </row>
     <row r="2" s="1" customFormat="1" ht="270" customHeight="1" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -2061,74 +2047,74 @@
     </row>
     <row r="14" s="1" customFormat="1" ht="246" customHeight="1" spans="1:2">
       <c r="A14" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>35</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="15" s="1" customFormat="1" ht="211" customHeight="1" spans="1:2">
       <c r="A15" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="16" s="1" customFormat="1" ht="211" customHeight="1" spans="1:2">
       <c r="A16" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>39</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="17" s="1" customFormat="1" ht="78" customHeight="1" spans="1:2">
       <c r="A17" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>41</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="18" s="1" customFormat="1" ht="120" customHeight="1" spans="1:2">
       <c r="A18" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="19" s="1" customFormat="1" ht="126" customHeight="1" spans="1:2">
       <c r="A19" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>45</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="20" s="1" customFormat="1" ht="105" customHeight="1" spans="1:2">
       <c r="A20" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="21" s="1" customFormat="1" ht="159" customHeight="1" spans="1:2">
       <c r="A21" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>49</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="22" s="1" customFormat="1" ht="159" customHeight="1" spans="1:2">
       <c r="A22" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>51</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="23" s="1" customFormat="1" ht="120" customHeight="1" spans="1:2">
@@ -2141,82 +2127,82 @@
     </row>
     <row r="24" s="1" customFormat="1" ht="131" customHeight="1" spans="1:2">
       <c r="A24" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="25" s="1" customFormat="1" ht="105" customHeight="1" spans="1:2">
       <c r="A25" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B25" s="2" t="s">
         <v>55</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="26" s="1" customFormat="1" ht="137" customHeight="1" spans="1:2">
       <c r="A26" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B26" s="2" t="s">
         <v>57</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="27" s="1" customFormat="1" ht="102" customHeight="1" spans="1:2">
       <c r="A27" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B27" s="2" t="s">
         <v>59</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="28" s="1" customFormat="1" ht="76" customHeight="1" spans="1:2">
       <c r="A28" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B28" s="2" t="s">
         <v>61</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="29" s="1" customFormat="1" ht="76" customHeight="1" spans="1:2">
       <c r="A29" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B29" s="2" t="s">
         <v>63</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="30" s="1" customFormat="1" ht="76" customHeight="1" spans="1:2">
       <c r="A30" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B30" s="2" t="s">
         <v>65</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="31" s="1" customFormat="1" ht="76" customHeight="1" spans="1:2">
       <c r="A31" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B31" s="2" t="s">
         <v>67</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="32" s="1" customFormat="1" ht="76" customHeight="1" spans="1:2">
       <c r="A32" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B32" s="2" t="s">
         <v>69</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="33" s="1" customFormat="1" ht="137" customHeight="1" spans="1:2">
       <c r="A33" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B33" s="2" t="s">
         <v>71</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -2228,10 +2214,10 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B44"/>
+  <dimension ref="A1:B43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="A44" sqref="A44"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
@@ -2250,26 +2236,26 @@
     </row>
     <row r="2" customFormat="1" ht="95" customHeight="1" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>11</v>
+        <v>72</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="131" customHeight="1" spans="1:2">
+    <row r="3" customFormat="1" ht="95" customHeight="1" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" ht="131" customHeight="1" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>16</v>
+        <v>74</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" ht="131" customHeight="1" spans="1:2">
@@ -2285,310 +2271,302 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>20</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" ht="205" customHeight="1" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" ht="189" customHeight="1" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" ht="108" customHeight="1" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" ht="108" customHeight="1" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" ht="180" customHeight="1" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="12" s="1" customFormat="1" ht="156" customHeight="1" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13" s="1" customFormat="1" ht="106" customHeight="1" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14" s="1" customFormat="1" ht="98" customHeight="1" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="15" s="1" customFormat="1" ht="111" customHeight="1" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="16" s="1" customFormat="1" ht="93" customHeight="1" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="17" s="1" customFormat="1" ht="93" customHeight="1" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
     <row r="18" s="1" customFormat="1" ht="93" customHeight="1" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="19" s="1" customFormat="1" ht="93" customHeight="1" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="20" s="1" customFormat="1" ht="93" customHeight="1" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
     <row r="21" s="1" customFormat="1" ht="150" customHeight="1" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
     <row r="22" s="1" customFormat="1" ht="159" customHeight="1" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>35</v>
+        <v>2</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
     </row>
     <row r="23" s="1" customFormat="1" ht="173" customHeight="1" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
     </row>
     <row r="24" s="1" customFormat="1" ht="147" customHeight="1" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
     </row>
     <row r="25" s="1" customFormat="1" ht="150" customHeight="1" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
     </row>
     <row r="26" s="1" customFormat="1" ht="99" customHeight="1" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
     </row>
     <row r="27" s="1" customFormat="1" ht="99" customHeight="1" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
     <row r="28" s="1" customFormat="1" ht="104" customHeight="1" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
     </row>
     <row r="29" s="1" customFormat="1" ht="105" customHeight="1" spans="1:2">
       <c r="A29" s="1" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
     </row>
     <row r="30" s="1" customFormat="1" ht="137" customHeight="1" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="31" s="1" customFormat="1" ht="102" customHeight="1" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="32" s="1" customFormat="1" ht="76" customHeight="1" spans="1:2">
       <c r="A32" s="1" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="33" s="1" customFormat="1" ht="137" customHeight="1" spans="1:2">
       <c r="A33" s="1" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
     </row>
     <row r="34" s="1" customFormat="1" ht="76" customHeight="1" spans="1:2">
       <c r="A34" s="1" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
     </row>
     <row r="35" s="1" customFormat="1" ht="76" customHeight="1" spans="1:2">
       <c r="A35" s="1" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="36" s="1" customFormat="1" ht="76" customHeight="1" spans="1:2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="36" s="1" customFormat="1" ht="137" customHeight="1" spans="1:2">
       <c r="A36" s="1" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="37" s="1" customFormat="1" ht="137" customHeight="1" spans="1:2">
       <c r="A37" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="38" s="1" customFormat="1" ht="137" customHeight="1" spans="1:2">
       <c r="A38" s="1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="39" s="1" customFormat="1" ht="137" customHeight="1" spans="1:2">
       <c r="A39" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="40" s="1" customFormat="1" ht="137" customHeight="1" spans="1:2">
       <c r="A40" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="41" s="1" customFormat="1" ht="137" customHeight="1" spans="1:2">
       <c r="A41" s="1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="42" s="1" customFormat="1" ht="137" customHeight="1" spans="1:2">
       <c r="A42" s="1" t="s">
-        <v>139</v>
+        <v>70</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="43" s="1" customFormat="1" ht="137" customHeight="1" spans="1:2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="43" s="1" customFormat="1" ht="92" customHeight="1" spans="1:2">
       <c r="A43" s="1" t="s">
-        <v>71</v>
+        <v>4</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="44" s="1" customFormat="1" ht="270" customHeight="1" spans="1:2">
-      <c r="A44" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B44" s="2" t="s">
         <v>141</v>
       </c>
     </row>

--- a/本地play_UI _easySoftWare/test_cases/欧拉社区UI自动化测试用例.xlsx
+++ b/本地play_UI _easySoftWare/test_cases/欧拉社区UI自动化测试用例.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15600" windowHeight="13260" activeTab="5"/>
+    <workbookView windowWidth="15600" windowHeight="13260"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="143">
   <si>
     <t>测试案例名称</t>
   </si>
@@ -41,14 +41,23 @@
   </si>
   <si>
     <t>openEuler-导航-社区-关于社区</t>
+  </si>
+  <si>
+    <t>进入生产环境
+跳过新手指引
+进入页脚成员单位
+进入页脚组织架构
+进入页脚社区章程
+进入页脚贡献看板
+进入页脚社区介绍</t>
+  </si>
+  <si>
+    <t>openEuler-页脚-友情链接</t>
   </si>
   <si>
     <t>进入生产环境
 跳过新手指引
 友情链接</t>
-  </si>
-  <si>
-    <t>openEuler-页脚-友情链接</t>
   </si>
   <si>
     <t>openEuler-主页-banner切换</t>
@@ -1779,8 +1788,8 @@
   <sheetPr/>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="89" customHeight="1" outlineLevelRow="1" outlineLevelCol="1"/>
@@ -1842,7 +1851,7 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1898,26 +1907,26 @@
     </row>
     <row r="2" s="1" customFormat="1" ht="120" customHeight="1" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" ht="76" customHeight="1" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" ht="76" customHeight="1" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -1951,98 +1960,98 @@
     </row>
     <row r="2" customFormat="1" ht="161" customHeight="1" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" ht="131" customHeight="1" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" ht="131" customHeight="1" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" ht="131" customHeight="1" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" ht="131" customHeight="1" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" ht="174" customHeight="1" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" ht="163" customHeight="1" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" ht="207" customHeight="1" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" ht="202" customHeight="1" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" ht="179" customHeight="1" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" s="1" customFormat="1" ht="129" customHeight="1" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" s="1" customFormat="1" ht="129" customHeight="1" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" s="1" customFormat="1" ht="246" customHeight="1" spans="1:2">
@@ -2050,159 +2059,159 @@
         <v>2</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" s="1" customFormat="1" ht="211" customHeight="1" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" s="1" customFormat="1" ht="211" customHeight="1" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" s="1" customFormat="1" ht="78" customHeight="1" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" s="1" customFormat="1" ht="120" customHeight="1" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19" s="1" customFormat="1" ht="126" customHeight="1" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="20" s="1" customFormat="1" ht="105" customHeight="1" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="21" s="1" customFormat="1" ht="159" customHeight="1" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="22" s="1" customFormat="1" ht="159" customHeight="1" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="23" s="1" customFormat="1" ht="120" customHeight="1" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24" s="1" customFormat="1" ht="131" customHeight="1" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="25" s="1" customFormat="1" ht="105" customHeight="1" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="26" s="1" customFormat="1" ht="137" customHeight="1" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="27" s="1" customFormat="1" ht="102" customHeight="1" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" s="1" customFormat="1" ht="76" customHeight="1" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="29" s="1" customFormat="1" ht="76" customHeight="1" spans="1:2">
       <c r="A29" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="30" s="1" customFormat="1" ht="76" customHeight="1" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="31" s="1" customFormat="1" ht="76" customHeight="1" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="32" s="1" customFormat="1" ht="76" customHeight="1" spans="1:2">
       <c r="A32" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="33" s="1" customFormat="1" ht="137" customHeight="1" spans="1:2">
       <c r="A33" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -2216,8 +2225,8 @@
   <sheetPr/>
   <dimension ref="A1:B43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" topLeftCell="B34" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
@@ -2236,162 +2245,162 @@
     </row>
     <row r="2" customFormat="1" ht="95" customHeight="1" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" customFormat="1" ht="95" customHeight="1" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" ht="131" customHeight="1" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" ht="131" customHeight="1" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" ht="131" customHeight="1" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" ht="205" customHeight="1" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" ht="189" customHeight="1" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" ht="108" customHeight="1" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" ht="108" customHeight="1" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" ht="180" customHeight="1" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="12" s="1" customFormat="1" ht="156" customHeight="1" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13" s="1" customFormat="1" ht="106" customHeight="1" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="14" s="1" customFormat="1" ht="98" customHeight="1" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="15" s="1" customFormat="1" ht="111" customHeight="1" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="16" s="1" customFormat="1" ht="93" customHeight="1" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="17" s="1" customFormat="1" ht="93" customHeight="1" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="18" s="1" customFormat="1" ht="93" customHeight="1" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="19" s="1" customFormat="1" ht="93" customHeight="1" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="20" s="1" customFormat="1" ht="93" customHeight="1" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="21" s="1" customFormat="1" ht="150" customHeight="1" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="22" s="1" customFormat="1" ht="159" customHeight="1" spans="1:2">
@@ -2399,167 +2408,167 @@
         <v>2</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="23" s="1" customFormat="1" ht="173" customHeight="1" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="24" s="1" customFormat="1" ht="147" customHeight="1" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="25" s="1" customFormat="1" ht="150" customHeight="1" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="26" s="1" customFormat="1" ht="99" customHeight="1" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="27" s="1" customFormat="1" ht="99" customHeight="1" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="28" s="1" customFormat="1" ht="104" customHeight="1" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="29" s="1" customFormat="1" ht="105" customHeight="1" spans="1:2">
       <c r="A29" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="30" s="1" customFormat="1" ht="137" customHeight="1" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="31" s="1" customFormat="1" ht="102" customHeight="1" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="32" s="1" customFormat="1" ht="76" customHeight="1" spans="1:2">
       <c r="A32" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="33" s="1" customFormat="1" ht="137" customHeight="1" spans="1:2">
       <c r="A33" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="34" s="1" customFormat="1" ht="76" customHeight="1" spans="1:2">
       <c r="A34" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="35" s="1" customFormat="1" ht="76" customHeight="1" spans="1:2">
       <c r="A35" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="36" s="1" customFormat="1" ht="137" customHeight="1" spans="1:2">
       <c r="A36" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="37" s="1" customFormat="1" ht="137" customHeight="1" spans="1:2">
       <c r="A37" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="38" s="1" customFormat="1" ht="137" customHeight="1" spans="1:2">
       <c r="A38" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="39" s="1" customFormat="1" ht="137" customHeight="1" spans="1:2">
       <c r="A39" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="40" s="1" customFormat="1" ht="137" customHeight="1" spans="1:2">
       <c r="A40" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="41" s="1" customFormat="1" ht="137" customHeight="1" spans="1:2">
       <c r="A41" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="42" s="1" customFormat="1" ht="137" customHeight="1" spans="1:2">
       <c r="A42" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="43" s="1" customFormat="1" ht="92" customHeight="1" spans="1:2">
@@ -2567,7 +2576,7 @@
         <v>4</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>

--- a/本地play_UI _easySoftWare/test_cases/欧拉社区UI自动化测试用例.xlsx
+++ b/本地play_UI _easySoftWare/test_cases/欧拉社区UI自动化测试用例.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="142">
   <si>
     <t>测试案例名称</t>
   </si>
@@ -40,16 +40,74 @@
     <t>操作步骤</t>
   </si>
   <si>
-    <t>openEuler-导航-社区-关于社区</t>
-  </si>
-  <si>
-    <t>进入生产环境
-跳过新手指引
-进入页脚成员单位
-进入页脚组织架构
-进入页脚社区章程
-进入页脚贡献看板
-进入页脚社区介绍</t>
+    <t>openEuler-新手指引</t>
+  </si>
+  <si>
+    <t>进入生产环境
+新手指引</t>
+  </si>
+  <si>
+    <t>openEuler-账号服务-登录&amp;退出登录</t>
+  </si>
+  <si>
+    <t>进入生产环境
+登录(18048976612,675912zl.@)
+退出登录</t>
+  </si>
+  <si>
+    <t>openEuler-个人中心-信息修改</t>
+  </si>
+  <si>
+    <t>进入生产环境
+登录(18048976612,675912zl.@)
+进入个人中心
+更换头像(C:\Users\Administrator\Desktop\picture\1.jpg)
+修改昵称(klsdnflksdf)
+修改公司(tsdfsd)</t>
+  </si>
+  <si>
+    <t>openEuler-个人中心-取消和重新签署协议</t>
+  </si>
+  <si>
+    <t>进入生产环境
+登录(18048976612,675912zl.@)
+进入个人中心
+取消签署协议
+登录并签署隐私声明(18048976612,675912zl.@)</t>
+  </si>
+  <si>
+    <t>openEuler-消息中心-消息中心操作</t>
+  </si>
+  <si>
+    <t>进入生产环境
+登录(18048976612,675912zl.@)
+进入消息中心
+消息标为已读
+消息分页(30条/页)
+消息切页(2)</t>
+  </si>
+  <si>
+    <t>openEuler-导航-下载-社区发行版</t>
+  </si>
+  <si>
+    <t>进入生产环境
+点击openEuler 24.03 LTS(社区发行版)
+openEuler 24.03 LTS场景筛选
+点击openEuler 24.09
+openEuler 24.09场景筛选
+点击openEuler 22.03 LTS SP4
+openEuler 22.03 LTS SP4场景筛选
+其他获取方式
+点击公有云
+点击容器镜像
+点击Windows
+点击Virtualization
+点击Raspberry Pi
+点击技术白皮书
+点击24.03 LTS安装指南
+点击24.09安装指南
+点击版本生命周期
+点击查询历史版本</t>
   </si>
   <si>
     <t>openEuler-页脚-友情链接</t>
@@ -79,14 +137,6 @@
   <si>
     <t>进入生产环境
 友情链接跳转官网</t>
-  </si>
-  <si>
-    <t>openEuler-账号服务-登录&amp;退出登录</t>
-  </si>
-  <si>
-    <t>进入生产环境
-登录(18048976612,675912zl.@)
-退出登录</t>
   </si>
   <si>
     <t>openEuler-个人中心-更换头像</t>
@@ -106,19 +156,6 @@
 进入个人中心
 修改昵称(dsf321561465)
 修改公司(tester)</t>
-  </si>
-  <si>
-    <t>openEuler-个人中心-取消和重新签署协议</t>
-  </si>
-  <si>
-    <t>进入生产环境
-登录(18048976612,675912zl.@)
-进入个人中心
-取消签署协议
-登录并签署隐私声明(18048976612,675912zl.@)</t>
-  </si>
-  <si>
-    <t>openEuler-消息中心-消息中心操作</t>
   </si>
   <si>
     <t>进入生产环境
@@ -234,6 +271,9 @@
 点击软件包仓
 鼠标悬浮开发者
 点击Github镜像仓</t>
+  </si>
+  <si>
+    <t>openEuler-导航-社区-关于社区</t>
   </si>
   <si>
     <t>进入生产环境
@@ -451,68 +491,16 @@
 关于cookies</t>
   </si>
   <si>
-    <t>openEuler-新手指引</t>
-  </si>
-  <si>
-    <t>进入生产环境
-新手指引</t>
-  </si>
-  <si>
-    <t>openEuler-个人中心-信息修改</t>
-  </si>
-  <si>
-    <t>进入生产环境
-登录(18048976612,675912zl.@)
-进入个人中心
-更换头像(C:\Users\Administrator\Desktop\picture\1.jpg)
-修改昵称(klsdnflksdf)
-修改公司(tsdfsd)</t>
-  </si>
-  <si>
-    <t>进入生产环境
-登录(18048976612,675912zl.@)
-进入消息中心
-消息标为已读
-消息分页(30条/页)
-消息切页(2)</t>
-  </si>
-  <si>
-    <t>进入生产环境
-点击获取openEuler操作系统
-点击公有云
-点击容器镜像
-点击Windows
-点击Virtualization
-点击Raspberry Pi
-点击openEuler 24.03 LTS(获取方式快捷链接)
-点击openEuler repo 源
-点击镜像仓列表(获取方式)</t>
-  </si>
-  <si>
-    <t>openEuler-导航-下载-社区发行版</t>
-  </si>
-  <si>
-    <t>进入生产环境
-点击openEuler 24.03 LTS(社区发行版)
-openEuler 24.03 LTS场景筛选
-点击openEuler 24.09
-openEuler 24.09场景筛选
-点击openEuler 22.03 LTS SP4
-openEuler 22.03 LTS SP4场景筛选
-点击技术白皮书
-点击24.03 LTS安装指南
-点击24.09安装指南
-点击版本生命周期
-点击查询历史版本</t>
-  </si>
-  <si>
     <t>进入生产环境
 点击商业发行版</t>
   </si>
   <si>
+    <t>openEuler-导航-下载-下载资源</t>
+  </si>
+  <si>
     <t>进入生产环境
 点击软件中心
-点击镜像仓列表(下载服务)
+点击镜像仓列表(下载资源)
 点击Repo源</t>
   </si>
   <si>
@@ -587,6 +575,7 @@
   </si>
   <si>
     <t>进入生产环境
+进入EulerPublisher
 进入EulerLauncher
 进入OEPKGS</t>
   </si>
@@ -1786,13 +1775,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="89" customHeight="1" outlineLevelRow="1" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="89" customHeight="1" outlineLevelRow="6" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="41.375" style="1" customWidth="1"/>
     <col min="2" max="2" width="128.891666666667" style="2" customWidth="1"/>
@@ -1807,12 +1796,52 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="159" customHeight="1" spans="1:2">
+    <row r="2" customFormat="1" ht="95" customHeight="1" spans="1:2">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="3" customFormat="1" ht="95" customHeight="1" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" ht="131" customHeight="1" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" ht="131" customHeight="1" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" ht="131" customHeight="1" spans="1:2">
+      <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" s="1" customFormat="1" ht="260" customHeight="1" spans="1:2">
+      <c r="A7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -1848,10 +1877,10 @@
     </row>
     <row r="2" s="1" customFormat="1" ht="270" customHeight="1" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -1907,26 +1936,26 @@
     </row>
     <row r="2" s="1" customFormat="1" ht="120" customHeight="1" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" ht="76" customHeight="1" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" ht="76" customHeight="1" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -1960,258 +1989,258 @@
     </row>
     <row r="2" customFormat="1" ht="161" customHeight="1" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" ht="131" customHeight="1" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" ht="131" customHeight="1" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" ht="131" customHeight="1" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" ht="131" customHeight="1" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" ht="174" customHeight="1" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" ht="163" customHeight="1" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" ht="207" customHeight="1" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" ht="202" customHeight="1" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" ht="179" customHeight="1" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" s="1" customFormat="1" ht="129" customHeight="1" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" s="1" customFormat="1" ht="129" customHeight="1" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" s="1" customFormat="1" ht="246" customHeight="1" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>2</v>
+        <v>41</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" s="1" customFormat="1" ht="211" customHeight="1" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" s="1" customFormat="1" ht="211" customHeight="1" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17" s="1" customFormat="1" ht="78" customHeight="1" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18" s="1" customFormat="1" ht="120" customHeight="1" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" s="1" customFormat="1" ht="126" customHeight="1" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
     </row>
     <row r="20" s="1" customFormat="1" ht="105" customHeight="1" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
     </row>
     <row r="21" s="1" customFormat="1" ht="159" customHeight="1" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
     </row>
     <row r="22" s="1" customFormat="1" ht="159" customHeight="1" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
     </row>
     <row r="23" s="1" customFormat="1" ht="120" customHeight="1" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="24" s="1" customFormat="1" ht="131" customHeight="1" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
     </row>
     <row r="25" s="1" customFormat="1" ht="105" customHeight="1" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
     </row>
     <row r="26" s="1" customFormat="1" ht="137" customHeight="1" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
     </row>
     <row r="27" s="1" customFormat="1" ht="102" customHeight="1" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
     </row>
     <row r="28" s="1" customFormat="1" ht="76" customHeight="1" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
     </row>
     <row r="29" s="1" customFormat="1" ht="76" customHeight="1" spans="1:2">
       <c r="A29" s="1" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
     </row>
     <row r="30" s="1" customFormat="1" ht="76" customHeight="1" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
     </row>
     <row r="31" s="1" customFormat="1" ht="76" customHeight="1" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
     </row>
     <row r="32" s="1" customFormat="1" ht="76" customHeight="1" spans="1:2">
       <c r="A32" s="1" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
     </row>
     <row r="33" s="1" customFormat="1" ht="137" customHeight="1" spans="1:2">
       <c r="A33" s="1" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -2223,10 +2252,10 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B43"/>
+  <dimension ref="A1:B42"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" topLeftCell="B34" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A7" sqref="$A2:$XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
@@ -2245,338 +2274,330 @@
     </row>
     <row r="2" customFormat="1" ht="95" customHeight="1" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>73</v>
+        <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>74</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" customFormat="1" ht="95" customHeight="1" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" ht="131" customHeight="1" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>75</v>
+        <v>6</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>76</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" ht="131" customHeight="1" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" ht="131" customHeight="1" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="7" s="1" customFormat="1" ht="205" customHeight="1" spans="1:2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" s="1" customFormat="1" ht="260" customHeight="1" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="8" s="1" customFormat="1" ht="189" customHeight="1" spans="1:2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" s="1" customFormat="1" ht="108" customHeight="1" spans="1:2">
       <c r="A8" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>79</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" ht="108" customHeight="1" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="10" s="1" customFormat="1" ht="108" customHeight="1" spans="1:2">
+    <row r="10" s="1" customFormat="1" ht="180" customHeight="1" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>47</v>
+        <v>82</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="11" s="1" customFormat="1" ht="180" customHeight="1" spans="1:2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="11" s="1" customFormat="1" ht="156" customHeight="1" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="12" s="1" customFormat="1" ht="156" customHeight="1" spans="1:2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="12" s="1" customFormat="1" ht="106" customHeight="1" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="13" s="1" customFormat="1" ht="106" customHeight="1" spans="1:2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="13" s="1" customFormat="1" ht="98" customHeight="1" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="14" s="1" customFormat="1" ht="98" customHeight="1" spans="1:2">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="14" s="1" customFormat="1" ht="111" customHeight="1" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="15" s="1" customFormat="1" ht="111" customHeight="1" spans="1:2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="15" s="1" customFormat="1" ht="93" customHeight="1" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="16" s="1" customFormat="1" ht="93" customHeight="1" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="17" s="1" customFormat="1" ht="93" customHeight="1" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="18" s="1" customFormat="1" ht="93" customHeight="1" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="19" s="1" customFormat="1" ht="93" customHeight="1" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="20" s="1" customFormat="1" ht="93" customHeight="1" spans="1:2">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="20" s="1" customFormat="1" ht="150" customHeight="1" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="21" s="1" customFormat="1" ht="150" customHeight="1" spans="1:2">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="21" s="1" customFormat="1" ht="159" customHeight="1" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>103</v>
+        <v>41</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="22" s="1" customFormat="1" ht="159" customHeight="1" spans="1:2">
+    <row r="22" s="1" customFormat="1" ht="173" customHeight="1" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>2</v>
+        <v>105</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="23" s="1" customFormat="1" ht="173" customHeight="1" spans="1:2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="23" s="1" customFormat="1" ht="147" customHeight="1" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>106</v>
+        <v>45</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="24" s="1" customFormat="1" ht="147" customHeight="1" spans="1:2">
+    <row r="24" s="1" customFormat="1" ht="150" customHeight="1" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>39</v>
+        <v>108</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="25" s="1" customFormat="1" ht="150" customHeight="1" spans="1:2">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="25" s="1" customFormat="1" ht="99" customHeight="1" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="26" s="1" customFormat="1" ht="99" customHeight="1" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="27" s="1" customFormat="1" ht="99" customHeight="1" spans="1:2">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="27" s="1" customFormat="1" ht="104" customHeight="1" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="28" s="1" customFormat="1" ht="104" customHeight="1" spans="1:2">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="28" s="1" customFormat="1" ht="105" customHeight="1" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="29" s="1" customFormat="1" ht="105" customHeight="1" spans="1:2">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="29" s="1" customFormat="1" ht="137" customHeight="1" spans="1:2">
       <c r="A29" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="30" s="1" customFormat="1" ht="137" customHeight="1" spans="1:2">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="30" s="1" customFormat="1" ht="102" customHeight="1" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="31" s="1" customFormat="1" ht="102" customHeight="1" spans="1:2">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="31" s="1" customFormat="1" ht="76" customHeight="1" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="32" s="1" customFormat="1" ht="76" customHeight="1" spans="1:2">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="32" s="1" customFormat="1" ht="137" customHeight="1" spans="1:2">
       <c r="A32" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="33" s="1" customFormat="1" ht="137" customHeight="1" spans="1:2">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="33" s="1" customFormat="1" ht="76" customHeight="1" spans="1:2">
       <c r="A33" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="34" s="1" customFormat="1" ht="76" customHeight="1" spans="1:2">
       <c r="A34" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="35" s="1" customFormat="1" ht="76" customHeight="1" spans="1:2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="35" s="1" customFormat="1" ht="137" customHeight="1" spans="1:2">
       <c r="A35" s="1" t="s">
         <v>129</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>68</v>
+        <v>130</v>
       </c>
     </row>
     <row r="36" s="1" customFormat="1" ht="137" customHeight="1" spans="1:2">
       <c r="A36" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="37" s="1" customFormat="1" ht="137" customHeight="1" spans="1:2">
       <c r="A37" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="38" s="1" customFormat="1" ht="137" customHeight="1" spans="1:2">
       <c r="A38" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="39" s="1" customFormat="1" ht="137" customHeight="1" spans="1:2">
       <c r="A39" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="40" s="1" customFormat="1" ht="137" customHeight="1" spans="1:2">
       <c r="A40" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="41" s="1" customFormat="1" ht="137" customHeight="1" spans="1:2">
       <c r="A41" s="1" t="s">
-        <v>140</v>
+        <v>77</v>
       </c>
       <c r="B41" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="42" s="1" customFormat="1" ht="92" customHeight="1" spans="1:2">
+      <c r="A42" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B42" s="2" t="s">
         <v>141</v>
-      </c>
-    </row>
-    <row r="42" s="1" customFormat="1" ht="137" customHeight="1" spans="1:2">
-      <c r="A42" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="43" s="1" customFormat="1" ht="92" customHeight="1" spans="1:2">
-      <c r="A43" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>142</v>
       </c>
     </row>
   </sheetData>

--- a/本地play_UI _easySoftWare/test_cases/欧拉社区UI自动化测试用例.xlsx
+++ b/本地play_UI _easySoftWare/test_cases/欧拉社区UI自动化测试用例.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="143">
   <si>
     <t>测试案例名称</t>
   </si>
@@ -40,11 +40,43 @@
     <t>操作步骤</t>
   </si>
   <si>
-    <t>openEuler-新手指引</t>
-  </si>
-  <si>
-    <t>进入生产环境
-新手指引</t>
+    <t>openEuler-首页-博客和新闻</t>
+  </si>
+  <si>
+    <t>进入生产环境
+跳过新手指引
+进入EulerPublisher
+进入EulerLauncher
+进入OEPKGS</t>
+  </si>
+  <si>
+    <t>openEuler-页脚-友情链接</t>
+  </si>
+  <si>
+    <t>进入生产环境
+跳过新手指引
+友情链接</t>
+  </si>
+  <si>
+    <t>openEuler-主页-banner切换</t>
+  </si>
+  <si>
+    <t>进入生产环境
+切换首页banner</t>
+  </si>
+  <si>
+    <t>openEuler-主页-发布openEuler商业发行版的厂商</t>
+  </si>
+  <si>
+    <t>进入生产环境
+商业发行版的厂商跳转官网</t>
+  </si>
+  <si>
+    <t>openEuler-主页-友情链接</t>
+  </si>
+  <si>
+    <t>进入生产环境
+友情链接跳转官网</t>
   </si>
   <si>
     <t>openEuler-账号服务-登录&amp;退出登录</t>
@@ -53,6 +85,378 @@
     <t>进入生产环境
 登录(18048976612,675912zl.@)
 退出登录</t>
+  </si>
+  <si>
+    <t>openEuler-个人中心-更换头像</t>
+  </si>
+  <si>
+    <t>进入生产环境
+登录(18048976612,675912zl.@)
+进入个人中心
+更换头像(C:\Users\Administrator\Desktop\picture\1.jpg)</t>
+  </si>
+  <si>
+    <t>openEuler-个人中心-个人信息修改</t>
+  </si>
+  <si>
+    <t>进入生产环境
+登录(18048976612,675912zl.@)
+进入个人中心
+修改昵称(dsf321561465)
+修改公司(tester)</t>
+  </si>
+  <si>
+    <t>openEuler-个人中心-取消和重新签署协议</t>
+  </si>
+  <si>
+    <t>进入生产环境
+登录(18048976612,675912zl.@)
+进入个人中心
+取消签署协议
+登录并签署隐私声明(18048976612,675912zl.@)</t>
+  </si>
+  <si>
+    <t>openEuler-消息中心-消息中心操作</t>
+  </si>
+  <si>
+    <t>进入生产环境
+登录(18048976612,675912zl.@)
+进入消息中心
+选择Gitee消息
+消息标为已读
+消息分页(30条/页)
+消息切页(2)</t>
+  </si>
+  <si>
+    <t>openEuler-导航-用户-技术展示</t>
+  </si>
+  <si>
+    <t>进入生产环境
+鼠标悬浮用户
+点击用户案例
+鼠标悬浮用户
+点击技术白皮书
+鼠标悬浮用户
+点击行业白皮书
+鼠标悬浮用户
+点击市场研究报告</t>
+  </si>
+  <si>
+    <t>openEuler-导航-用户-使用指南</t>
+  </si>
+  <si>
+    <t>进入生产环境
+鼠标悬浮用户
+点击文档(用户)
+鼠标悬浮用户
+点击Man Pages
+鼠标悬浮用户
+点击课程中心(用户)
+鼠标悬浮用户
+点击迁移中心
+鼠标悬浮用户
+点击运维专区</t>
+  </si>
+  <si>
+    <t>openEuler-导航-用户-支持与服务</t>
+  </si>
+  <si>
+    <t>进入生产环境
+登录(18048976612,675912zl.@)
+鼠标悬浮用户
+点击软件中心
+鼠标悬浮用户
+点击兼容性技术测评
+鼠标悬浮用户
+点击安全中心
+鼠标悬浮用户
+点击缺陷中心
+鼠标悬浮用户
+点击OSV技术测评
+鼠标悬浮用户
+点击兼容性列表</t>
+  </si>
+  <si>
+    <t>openEuler-导航-开发者-学习与贡献</t>
+  </si>
+  <si>
+    <t>进入生产环境
+鼠标悬浮开发者
+点击文档(开发者)
+鼠标悬浮开发者
+点击课程中心(开发者)
+鼠标悬浮开发者
+点击贡献攻略(开发者)
+鼠标悬浮开发者
+点击SIG中心(开发者)
+鼠标悬浮开发者
+点击开源实习
+鼠标悬浮开发者
+点击CLA签署</t>
+  </si>
+  <si>
+    <t>openEuler-导航-开发者-开发openEuler</t>
+  </si>
+  <si>
+    <t>进入生产环境
+鼠标悬浮开发者
+点击QuickIssue
+点击软件包贡献
+点击EulerTest
+点击Compass-CI
+点击EulerMaker
+点击Pkgship
+点击License工具门户
+点击x2openEuler
+点击OEPKGS
+点击oecp</t>
+  </si>
+  <si>
+    <t>openEuler-导航-开发者-在openEuler上开发</t>
+  </si>
+  <si>
+    <t>进入生产环境
+鼠标悬浮开发者
+点击EulerLauncher
+鼠标悬浮开发者
+点击用户软件仓</t>
+  </si>
+  <si>
+    <t>openEuler-导航-开发者-源码</t>
+  </si>
+  <si>
+    <t>进入生产环境
+鼠标悬浮开发者
+点击代码仓
+鼠标悬浮开发者
+点击软件包仓
+鼠标悬浮开发者
+点击Github镜像仓</t>
+  </si>
+  <si>
+    <t>openEuler-导航-社区-关于社区</t>
+  </si>
+  <si>
+    <t>进入生产环境
+鼠标悬浮社区
+点击组织架构
+鼠标悬浮社区
+点击社区章程
+鼠标悬浮社区
+点击oEEP
+鼠标悬浮社区
+点击城市用户组
+鼠标悬浮社区
+点击成员单位
+鼠标悬浮社区
+点击社区荣誉
+鼠标悬浮社区
+点击openEuler Call for X 计划
+鼠标悬浮社区
+点击贡献看板</t>
+  </si>
+  <si>
+    <t>openEuler-导航-社区-学习与贡献</t>
+  </si>
+  <si>
+    <t>进入生产环境
+鼠标悬浮社区
+点击文档(社区)
+鼠标悬浮社区
+点击高校
+鼠标悬浮社区
+点击课程中心(社区)
+鼠标悬浮社区
+点击贡献攻略(社区)
+鼠标悬浮社区
+点击SIG中心(社区)
+鼠标悬浮社区
+点击人才评定</t>
+  </si>
+  <si>
+    <t>openEuler-导航-社区-项目</t>
+  </si>
+  <si>
+    <t>进入生产环境
+鼠标悬浮社区
+点击A-Tune
+鼠标悬浮社区
+点击iSula
+鼠标悬浮社区
+点击StratoVirt
+鼠标悬浮社区
+点击BiSheng JDK
+鼠标悬浮社区
+点击secGear
+鼠标悬浮社区
+点击NestOS</t>
+  </si>
+  <si>
+    <t>openEuler-导航-下载-获取方式</t>
+  </si>
+  <si>
+    <t>进入生产环境
+鼠标悬浮下载
+点击获取openEuler操作系统</t>
+  </si>
+  <si>
+    <t>openEuler-导航-下载-最新版本</t>
+  </si>
+  <si>
+    <t>进入生产环境
+鼠标悬浮下载
+点击openEuler 24.03 LTS
+鼠标悬浮下载
+点击openEuler 24.09</t>
+  </si>
+  <si>
+    <t>openEuler-导航-下载-其他版本</t>
+  </si>
+  <si>
+    <t>进入生产环境
+鼠标悬浮下载
+点击社区发行版
+鼠标悬浮下载
+点击商业发行版</t>
+  </si>
+  <si>
+    <t>openEuler-导航-下载-下载服务</t>
+  </si>
+  <si>
+    <t>进入生产环境
+鼠标悬浮下载
+点击镜像仓列表</t>
+  </si>
+  <si>
+    <t>openEuler-首页-导航-动态</t>
+  </si>
+  <si>
+    <t>进入生产环境
+鼠标悬浮用户
+点击新闻
+鼠标悬浮用户
+点击博客
+鼠标悬浮用户
+点击活动
+鼠标悬浮用户
+点击峰会
+鼠标悬浮用户
+点击月刊</t>
+  </si>
+  <si>
+    <t>openEuler-首页-导航-交流</t>
+  </si>
+  <si>
+    <t>进入生产环境
+鼠标悬浮用户
+点击论坛
+鼠标悬浮用户
+点击邮件列表
+鼠标悬浮用户
+点击线上会议
+鼠标悬浮用户
+点击社交媒体</t>
+  </si>
+  <si>
+    <t>openEuler-主页-页面跳转</t>
+  </si>
+  <si>
+    <t>进入生产环境
+进入案例中心
+进入迁移专区
+进入社区论坛
+进入活动专区</t>
+  </si>
+  <si>
+    <t>openEuler-主页-面向数字基础设施的开源操作系统</t>
+  </si>
+  <si>
+    <t>进入生产环境
+点击支持多样性设备
+点击覆盖全场景应用
+点击完整开发工具链
+点击立即体验</t>
+  </si>
+  <si>
+    <t>openEuler-主页-用户案例</t>
+  </si>
+  <si>
+    <t>进入生产环境
+点击主页用户案例(金融)
+点击主页用户案例(运营商)
+点击主页用户案例(能源)
+点击主页用户案例(物流)
+点击主页用户案例(高校&amp;科研)
+点击主页用户案例(云计算)
+点击主页用户案例(其他)
+更多用户案例</t>
+  </si>
+  <si>
+    <t>openEuler-主页-社区动态</t>
+  </si>
+  <si>
+    <t>进入生产环境
+点击查看贡献详情
+断言社区动态有数据</t>
+  </si>
+  <si>
+    <t>openEuler-主页-博客</t>
+  </si>
+  <si>
+    <t>进入生产环境
+主页查看更多博客
+断言主页博客有数据</t>
+  </si>
+  <si>
+    <t>openEuler-主页-新闻</t>
+  </si>
+  <si>
+    <t>进入生产环境
+主页查看更多新闻
+断言主页新闻有数据</t>
+  </si>
+  <si>
+    <t>openEuler-主页-openEuler 开发者日历</t>
+  </si>
+  <si>
+    <t>进入生产环境
+日历类型切换
+会议详情收起与展开
+切换月份</t>
+  </si>
+  <si>
+    <t>openEuler-主页-悬浮窗帮助</t>
+  </si>
+  <si>
+    <t>进入生产环境
+悬浮窗进入社区论坛
+悬浮窗进入QuickIssue
+悬浮窗进入FAQs</t>
+  </si>
+  <si>
+    <t>openEuler-主页-悬浮窗反馈</t>
+  </si>
+  <si>
+    <t>进入生产环境
+悬浮窗反馈(8,test)</t>
+  </si>
+  <si>
+    <t>openEuler-页脚</t>
+  </si>
+  <si>
+    <t>进入生产环境
+开放原子开源基金会
+品牌
+隐私政策
+法律声明
+关于cookies</t>
+  </si>
+  <si>
+    <t>openEuler-新手指引</t>
+  </si>
+  <si>
+    <t>进入生产环境
+新手指引</t>
   </si>
   <si>
     <t>openEuler-个人中心-信息修改</t>
@@ -64,19 +468,6 @@
 更换头像(C:\Users\Administrator\Desktop\picture\1.jpg)
 修改昵称(klsdnflksdf)
 修改公司(tsdfsd)</t>
-  </si>
-  <si>
-    <t>openEuler-个人中心-取消和重新签署协议</t>
-  </si>
-  <si>
-    <t>进入生产环境
-登录(18048976612,675912zl.@)
-进入个人中心
-取消签署协议
-登录并签署隐私声明(18048976612,675912zl.@)</t>
-  </si>
-  <si>
-    <t>openEuler-消息中心-消息中心操作</t>
   </si>
   <si>
     <t>进入生产环境
@@ -110,387 +501,6 @@
 点击查询历史版本</t>
   </si>
   <si>
-    <t>openEuler-页脚-友情链接</t>
-  </si>
-  <si>
-    <t>进入生产环境
-跳过新手指引
-友情链接</t>
-  </si>
-  <si>
-    <t>openEuler-主页-banner切换</t>
-  </si>
-  <si>
-    <t>进入生产环境
-切换首页banner</t>
-  </si>
-  <si>
-    <t>openEuler-主页-发布openEuler商业发行版的厂商</t>
-  </si>
-  <si>
-    <t>进入生产环境
-商业发行版的厂商跳转官网</t>
-  </si>
-  <si>
-    <t>openEuler-主页-友情链接</t>
-  </si>
-  <si>
-    <t>进入生产环境
-友情链接跳转官网</t>
-  </si>
-  <si>
-    <t>openEuler-个人中心-更换头像</t>
-  </si>
-  <si>
-    <t>进入生产环境
-登录(18048976612,675912zl.@)
-进入个人中心
-更换头像(C:\Users\Administrator\Desktop\picture\1.jpg)</t>
-  </si>
-  <si>
-    <t>openEuler-个人中心-个人信息修改</t>
-  </si>
-  <si>
-    <t>进入生产环境
-登录(18048976612,675912zl.@)
-进入个人中心
-修改昵称(dsf321561465)
-修改公司(tester)</t>
-  </si>
-  <si>
-    <t>进入生产环境
-登录(18048976612,675912zl.@)
-进入消息中心
-选择Gitee消息
-消息标为已读
-消息分页(30条/页)
-消息切页(2)</t>
-  </si>
-  <si>
-    <t>openEuler-导航-用户-技术展示</t>
-  </si>
-  <si>
-    <t>进入生产环境
-鼠标悬浮用户
-点击用户案例
-鼠标悬浮用户
-点击技术白皮书
-鼠标悬浮用户
-点击行业白皮书
-鼠标悬浮用户
-点击市场研究报告</t>
-  </si>
-  <si>
-    <t>openEuler-导航-用户-使用指南</t>
-  </si>
-  <si>
-    <t>进入生产环境
-鼠标悬浮用户
-点击文档(用户)
-鼠标悬浮用户
-点击Man Pages
-鼠标悬浮用户
-点击课程中心(用户)
-鼠标悬浮用户
-点击迁移中心
-鼠标悬浮用户
-点击运维专区</t>
-  </si>
-  <si>
-    <t>openEuler-导航-用户-支持与服务</t>
-  </si>
-  <si>
-    <t>进入生产环境
-登录(18048976612,675912zl.@)
-鼠标悬浮用户
-点击软件中心
-鼠标悬浮用户
-点击兼容性技术测评
-鼠标悬浮用户
-点击安全中心
-鼠标悬浮用户
-点击缺陷中心
-鼠标悬浮用户
-点击OSV技术测评
-鼠标悬浮用户
-点击兼容性列表</t>
-  </si>
-  <si>
-    <t>openEuler-导航-开发者-学习与贡献</t>
-  </si>
-  <si>
-    <t>进入生产环境
-鼠标悬浮开发者
-点击文档(开发者)
-鼠标悬浮开发者
-点击课程中心(开发者)
-鼠标悬浮开发者
-点击贡献攻略(开发者)
-鼠标悬浮开发者
-点击SIG中心(开发者)
-鼠标悬浮开发者
-点击开源实习
-鼠标悬浮开发者
-点击CLA签署</t>
-  </si>
-  <si>
-    <t>openEuler-导航-开发者-开发openEuler</t>
-  </si>
-  <si>
-    <t>进入生产环境
-鼠标悬浮开发者
-点击QuickIssue
-点击软件包贡献
-点击EulerTest
-点击Compass-CI
-点击EulerMaker
-点击Pkgship
-点击License工具门户
-点击x2openEuler
-点击OEPKGS
-点击oecp</t>
-  </si>
-  <si>
-    <t>openEuler-导航-开发者-在openEuler上开发</t>
-  </si>
-  <si>
-    <t>进入生产环境
-鼠标悬浮开发者
-点击EulerLauncher
-鼠标悬浮开发者
-点击用户软件仓</t>
-  </si>
-  <si>
-    <t>openEuler-导航-开发者-源码</t>
-  </si>
-  <si>
-    <t>进入生产环境
-鼠标悬浮开发者
-点击代码仓
-鼠标悬浮开发者
-点击软件包仓
-鼠标悬浮开发者
-点击Github镜像仓</t>
-  </si>
-  <si>
-    <t>openEuler-导航-社区-关于社区</t>
-  </si>
-  <si>
-    <t>进入生产环境
-鼠标悬浮社区
-点击组织架构
-鼠标悬浮社区
-点击社区章程
-鼠标悬浮社区
-点击oEEP
-鼠标悬浮社区
-点击城市用户组
-鼠标悬浮社区
-点击成员单位
-鼠标悬浮社区
-点击社区荣誉
-鼠标悬浮社区
-点击openEuler Call for X 计划
-鼠标悬浮社区
-点击贡献看板</t>
-  </si>
-  <si>
-    <t>openEuler-导航-社区-学习与贡献</t>
-  </si>
-  <si>
-    <t>进入生产环境
-鼠标悬浮社区
-点击文档(社区)
-鼠标悬浮社区
-点击高校
-鼠标悬浮社区
-点击课程中心(社区)
-鼠标悬浮社区
-点击贡献攻略(社区)
-鼠标悬浮社区
-点击SIG中心(社区)
-鼠标悬浮社区
-点击人才评定</t>
-  </si>
-  <si>
-    <t>openEuler-导航-社区-项目</t>
-  </si>
-  <si>
-    <t>进入生产环境
-鼠标悬浮社区
-点击A-Tune
-鼠标悬浮社区
-点击iSula
-鼠标悬浮社区
-点击StratoVirt
-鼠标悬浮社区
-点击BiSheng JDK
-鼠标悬浮社区
-点击secGear
-鼠标悬浮社区
-点击NestOS</t>
-  </si>
-  <si>
-    <t>openEuler-导航-下载-获取方式</t>
-  </si>
-  <si>
-    <t>进入生产环境
-鼠标悬浮下载
-点击获取openEuler操作系统</t>
-  </si>
-  <si>
-    <t>openEuler-导航-下载-最新版本</t>
-  </si>
-  <si>
-    <t>进入生产环境
-鼠标悬浮下载
-点击openEuler 24.03 LTS
-鼠标悬浮下载
-点击openEuler 24.09</t>
-  </si>
-  <si>
-    <t>openEuler-导航-下载-其他版本</t>
-  </si>
-  <si>
-    <t>进入生产环境
-鼠标悬浮下载
-点击社区发行版
-鼠标悬浮下载
-点击商业发行版</t>
-  </si>
-  <si>
-    <t>openEuler-导航-下载-下载服务</t>
-  </si>
-  <si>
-    <t>进入生产环境
-鼠标悬浮下载
-点击镜像仓列表</t>
-  </si>
-  <si>
-    <t>openEuler-首页-导航-动态</t>
-  </si>
-  <si>
-    <t>进入生产环境
-鼠标悬浮用户
-点击新闻
-鼠标悬浮用户
-点击博客
-鼠标悬浮用户
-点击活动
-鼠标悬浮用户
-点击峰会
-鼠标悬浮用户
-点击月刊</t>
-  </si>
-  <si>
-    <t>openEuler-首页-导航-交流</t>
-  </si>
-  <si>
-    <t>进入生产环境
-鼠标悬浮用户
-点击论坛
-鼠标悬浮用户
-点击邮件列表
-鼠标悬浮用户
-点击线上会议
-鼠标悬浮用户
-点击社交媒体</t>
-  </si>
-  <si>
-    <t>openEuler-主页-页面跳转</t>
-  </si>
-  <si>
-    <t>进入生产环境
-进入案例中心
-进入迁移专区
-进入社区论坛
-进入活动专区</t>
-  </si>
-  <si>
-    <t>openEuler-主页-面向数字基础设施的开源操作系统</t>
-  </si>
-  <si>
-    <t>进入生产环境
-点击支持多样性设备
-点击覆盖全场景应用
-点击完整开发工具链
-点击立即体验</t>
-  </si>
-  <si>
-    <t>openEuler-主页-用户案例</t>
-  </si>
-  <si>
-    <t>进入生产环境
-点击主页用户案例(金融)
-点击主页用户案例(运营商)
-点击主页用户案例(能源)
-点击主页用户案例(物流)
-点击主页用户案例(高校&amp;科研)
-点击主页用户案例(云计算)
-点击主页用户案例(其他)
-更多用户案例</t>
-  </si>
-  <si>
-    <t>openEuler-主页-社区动态</t>
-  </si>
-  <si>
-    <t>进入生产环境
-点击查看贡献详情
-断言社区动态有数据</t>
-  </si>
-  <si>
-    <t>openEuler-主页-博客</t>
-  </si>
-  <si>
-    <t>进入生产环境
-主页查看更多博客
-断言主页博客有数据</t>
-  </si>
-  <si>
-    <t>openEuler-主页-新闻</t>
-  </si>
-  <si>
-    <t>进入生产环境
-主页查看更多新闻
-断言主页新闻有数据</t>
-  </si>
-  <si>
-    <t>openEuler-主页-openEuler 开发者日历</t>
-  </si>
-  <si>
-    <t>进入生产环境
-日历类型切换
-会议详情收起与展开
-切换月份</t>
-  </si>
-  <si>
-    <t>openEuler-主页-悬浮窗帮助</t>
-  </si>
-  <si>
-    <t>进入生产环境
-悬浮窗进入社区论坛
-悬浮窗进入QuickIssue
-悬浮窗进入FAQs</t>
-  </si>
-  <si>
-    <t>openEuler-主页-悬浮窗反馈</t>
-  </si>
-  <si>
-    <t>进入生产环境
-悬浮窗反馈(8,test)</t>
-  </si>
-  <si>
-    <t>openEuler-页脚</t>
-  </si>
-  <si>
-    <t>进入生产环境
-开放原子开源基金会
-品牌
-隐私政策
-法律声明
-关于cookies</t>
-  </si>
-  <si>
     <t>进入生产环境
 点击商业发行版</t>
   </si>
@@ -743,9 +753,6 @@
 点击主页用户案例(云计算)
 点击主页用户案例(其他)
 查看更多</t>
-  </si>
-  <si>
-    <t>openEuler-首页-博客和新闻</t>
   </si>
   <si>
     <t>进入生产环境
@@ -1775,13 +1782,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="89" customHeight="1" outlineLevelRow="6" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="89" customHeight="1" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="41.375" style="1" customWidth="1"/>
     <col min="2" max="2" width="128.891666666667" style="2" customWidth="1"/>
@@ -1796,52 +1803,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" customFormat="1" ht="95" customHeight="1" spans="1:2">
+    <row r="2" s="1" customFormat="1" ht="127" customHeight="1" spans="1:2">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="3" customFormat="1" ht="95" customHeight="1" spans="1:2">
-      <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" s="1" customFormat="1" ht="131" customHeight="1" spans="1:2">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" s="1" customFormat="1" ht="131" customHeight="1" spans="1:2">
-      <c r="A5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" s="1" customFormat="1" ht="131" customHeight="1" spans="1:2">
-      <c r="A6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" s="1" customFormat="1" ht="260" customHeight="1" spans="1:2">
-      <c r="A7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -1877,10 +1844,10 @@
     </row>
     <row r="2" s="1" customFormat="1" ht="270" customHeight="1" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1936,26 +1903,26 @@
     </row>
     <row r="2" s="1" customFormat="1" ht="120" customHeight="1" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" ht="76" customHeight="1" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" ht="76" customHeight="1" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -1989,258 +1956,258 @@
     </row>
     <row r="2" customFormat="1" ht="161" customHeight="1" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" ht="131" customHeight="1" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" ht="131" customHeight="1" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" ht="131" customHeight="1" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" ht="131" customHeight="1" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" ht="174" customHeight="1" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" ht="163" customHeight="1" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" ht="207" customHeight="1" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" ht="202" customHeight="1" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" ht="179" customHeight="1" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" s="1" customFormat="1" ht="129" customHeight="1" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" s="1" customFormat="1" ht="129" customHeight="1" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" s="1" customFormat="1" ht="246" customHeight="1" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" s="1" customFormat="1" ht="211" customHeight="1" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" s="1" customFormat="1" ht="211" customHeight="1" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" s="1" customFormat="1" ht="78" customHeight="1" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18" s="1" customFormat="1" ht="120" customHeight="1" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19" s="1" customFormat="1" ht="126" customHeight="1" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="20" s="1" customFormat="1" ht="105" customHeight="1" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="21" s="1" customFormat="1" ht="159" customHeight="1" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="22" s="1" customFormat="1" ht="159" customHeight="1" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="23" s="1" customFormat="1" ht="120" customHeight="1" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24" s="1" customFormat="1" ht="131" customHeight="1" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="25" s="1" customFormat="1" ht="105" customHeight="1" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="26" s="1" customFormat="1" ht="137" customHeight="1" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="27" s="1" customFormat="1" ht="102" customHeight="1" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="28" s="1" customFormat="1" ht="76" customHeight="1" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="29" s="1" customFormat="1" ht="76" customHeight="1" spans="1:2">
       <c r="A29" s="1" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="30" s="1" customFormat="1" ht="76" customHeight="1" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="31" s="1" customFormat="1" ht="76" customHeight="1" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="32" s="1" customFormat="1" ht="76" customHeight="1" spans="1:2">
       <c r="A32" s="1" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="33" s="1" customFormat="1" ht="137" customHeight="1" spans="1:2">
       <c r="A33" s="1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -2254,8 +2221,8 @@
   <sheetPr/>
   <dimension ref="A1:B42"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A7" sqref="$A2:$XFD7"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
@@ -2274,330 +2241,330 @@
     </row>
     <row r="2" customFormat="1" ht="95" customHeight="1" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>74</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>3</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" customFormat="1" ht="95" customHeight="1" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" ht="131" customHeight="1" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>76</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>7</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" ht="131" customHeight="1" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" ht="131" customHeight="1" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>11</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" ht="260" customHeight="1" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>12</v>
+        <v>79</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>13</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" ht="108" customHeight="1" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" ht="108" customHeight="1" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" ht="180" customHeight="1" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" ht="156" customHeight="1" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="12" s="1" customFormat="1" ht="106" customHeight="1" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="13" s="1" customFormat="1" ht="98" customHeight="1" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="14" s="1" customFormat="1" ht="111" customHeight="1" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="15" s="1" customFormat="1" ht="93" customHeight="1" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="16" s="1" customFormat="1" ht="93" customHeight="1" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" s="1" customFormat="1" ht="93" customHeight="1" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="18" s="1" customFormat="1" ht="93" customHeight="1" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="19" s="1" customFormat="1" ht="93" customHeight="1" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="20" s="1" customFormat="1" ht="150" customHeight="1" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="21" s="1" customFormat="1" ht="159" customHeight="1" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="22" s="1" customFormat="1" ht="173" customHeight="1" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="23" s="1" customFormat="1" ht="147" customHeight="1" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="24" s="1" customFormat="1" ht="150" customHeight="1" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="25" s="1" customFormat="1" ht="99" customHeight="1" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="26" s="1" customFormat="1" ht="99" customHeight="1" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="27" s="1" customFormat="1" ht="104" customHeight="1" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="28" s="1" customFormat="1" ht="105" customHeight="1" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="29" s="1" customFormat="1" ht="137" customHeight="1" spans="1:2">
       <c r="A29" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="30" s="1" customFormat="1" ht="102" customHeight="1" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="31" s="1" customFormat="1" ht="76" customHeight="1" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="32" s="1" customFormat="1" ht="137" customHeight="1" spans="1:2">
       <c r="A32" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="33" s="1" customFormat="1" ht="76" customHeight="1" spans="1:2">
       <c r="A33" s="1" t="s">
-        <v>126</v>
+        <v>2</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="34" s="1" customFormat="1" ht="76" customHeight="1" spans="1:2">
       <c r="A34" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="35" s="1" customFormat="1" ht="137" customHeight="1" spans="1:2">
       <c r="A35" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="36" s="1" customFormat="1" ht="137" customHeight="1" spans="1:2">
       <c r="A36" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="37" s="1" customFormat="1" ht="137" customHeight="1" spans="1:2">
       <c r="A37" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="38" s="1" customFormat="1" ht="137" customHeight="1" spans="1:2">
       <c r="A38" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="39" s="1" customFormat="1" ht="137" customHeight="1" spans="1:2">
       <c r="A39" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="40" s="1" customFormat="1" ht="137" customHeight="1" spans="1:2">
       <c r="A40" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="41" s="1" customFormat="1" ht="137" customHeight="1" spans="1:2">
       <c r="A41" s="1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="42" s="1" customFormat="1" ht="92" customHeight="1" spans="1:2">
       <c r="A42" s="1" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>

--- a/本地play_UI _easySoftWare/test_cases/欧拉社区UI自动化测试用例.xlsx
+++ b/本地play_UI _easySoftWare/test_cases/欧拉社区UI自动化测试用例.xlsx
@@ -45,9 +45,8 @@
   <si>
     <t>进入生产环境
 跳过新手指引
-进入EulerPublisher
-进入EulerLauncher
-进入OEPKGS</t>
+进入Compass-CI
+友情链接</t>
   </si>
   <si>
     <t>openEuler-页脚-友情链接</t>
@@ -2221,8 +2220,8 @@
   <sheetPr/>
   <dimension ref="A1:B42"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" topLeftCell="B40" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>

--- a/本地play_UI _easySoftWare/test_cases/欧拉社区UI自动化测试用例.xlsx
+++ b/本地play_UI _easySoftWare/test_cases/欧拉社区UI自动化测试用例.xlsx
@@ -4,15 +4,11 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15600" windowHeight="13260"/>
+    <workbookView windowWidth="15600" windowHeight="13260" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
-    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
-    <sheet name="Sheet6" sheetId="6" r:id="rId6"/>
+    <sheet name="Sheet2" sheetId="6" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="85">
   <si>
     <t>测试案例名称</t>
   </si>
@@ -49,33 +45,11 @@
 友情链接</t>
   </si>
   <si>
-    <t>openEuler-页脚-友情链接</t>
-  </si>
-  <si>
-    <t>进入生产环境
-跳过新手指引
-友情链接</t>
-  </si>
-  <si>
-    <t>openEuler-主页-banner切换</t>
-  </si>
-  <si>
-    <t>进入生产环境
-切换首页banner</t>
-  </si>
-  <si>
-    <t>openEuler-主页-发布openEuler商业发行版的厂商</t>
-  </si>
-  <si>
-    <t>进入生产环境
-商业发行版的厂商跳转官网</t>
-  </si>
-  <si>
-    <t>openEuler-主页-友情链接</t>
-  </si>
-  <si>
-    <t>进入生产环境
-友情链接跳转官网</t>
+    <t>openEuler-新手指引</t>
+  </si>
+  <si>
+    <t>进入生产环境
+新手指引</t>
   </si>
   <si>
     <t>openEuler-账号服务-登录&amp;退出登录</t>
@@ -84,378 +58,6 @@
     <t>进入生产环境
 登录(18048976612,675912zl.@)
 退出登录</t>
-  </si>
-  <si>
-    <t>openEuler-个人中心-更换头像</t>
-  </si>
-  <si>
-    <t>进入生产环境
-登录(18048976612,675912zl.@)
-进入个人中心
-更换头像(C:\Users\Administrator\Desktop\picture\1.jpg)</t>
-  </si>
-  <si>
-    <t>openEuler-个人中心-个人信息修改</t>
-  </si>
-  <si>
-    <t>进入生产环境
-登录(18048976612,675912zl.@)
-进入个人中心
-修改昵称(dsf321561465)
-修改公司(tester)</t>
-  </si>
-  <si>
-    <t>openEuler-个人中心-取消和重新签署协议</t>
-  </si>
-  <si>
-    <t>进入生产环境
-登录(18048976612,675912zl.@)
-进入个人中心
-取消签署协议
-登录并签署隐私声明(18048976612,675912zl.@)</t>
-  </si>
-  <si>
-    <t>openEuler-消息中心-消息中心操作</t>
-  </si>
-  <si>
-    <t>进入生产环境
-登录(18048976612,675912zl.@)
-进入消息中心
-选择Gitee消息
-消息标为已读
-消息分页(30条/页)
-消息切页(2)</t>
-  </si>
-  <si>
-    <t>openEuler-导航-用户-技术展示</t>
-  </si>
-  <si>
-    <t>进入生产环境
-鼠标悬浮用户
-点击用户案例
-鼠标悬浮用户
-点击技术白皮书
-鼠标悬浮用户
-点击行业白皮书
-鼠标悬浮用户
-点击市场研究报告</t>
-  </si>
-  <si>
-    <t>openEuler-导航-用户-使用指南</t>
-  </si>
-  <si>
-    <t>进入生产环境
-鼠标悬浮用户
-点击文档(用户)
-鼠标悬浮用户
-点击Man Pages
-鼠标悬浮用户
-点击课程中心(用户)
-鼠标悬浮用户
-点击迁移中心
-鼠标悬浮用户
-点击运维专区</t>
-  </si>
-  <si>
-    <t>openEuler-导航-用户-支持与服务</t>
-  </si>
-  <si>
-    <t>进入生产环境
-登录(18048976612,675912zl.@)
-鼠标悬浮用户
-点击软件中心
-鼠标悬浮用户
-点击兼容性技术测评
-鼠标悬浮用户
-点击安全中心
-鼠标悬浮用户
-点击缺陷中心
-鼠标悬浮用户
-点击OSV技术测评
-鼠标悬浮用户
-点击兼容性列表</t>
-  </si>
-  <si>
-    <t>openEuler-导航-开发者-学习与贡献</t>
-  </si>
-  <si>
-    <t>进入生产环境
-鼠标悬浮开发者
-点击文档(开发者)
-鼠标悬浮开发者
-点击课程中心(开发者)
-鼠标悬浮开发者
-点击贡献攻略(开发者)
-鼠标悬浮开发者
-点击SIG中心(开发者)
-鼠标悬浮开发者
-点击开源实习
-鼠标悬浮开发者
-点击CLA签署</t>
-  </si>
-  <si>
-    <t>openEuler-导航-开发者-开发openEuler</t>
-  </si>
-  <si>
-    <t>进入生产环境
-鼠标悬浮开发者
-点击QuickIssue
-点击软件包贡献
-点击EulerTest
-点击Compass-CI
-点击EulerMaker
-点击Pkgship
-点击License工具门户
-点击x2openEuler
-点击OEPKGS
-点击oecp</t>
-  </si>
-  <si>
-    <t>openEuler-导航-开发者-在openEuler上开发</t>
-  </si>
-  <si>
-    <t>进入生产环境
-鼠标悬浮开发者
-点击EulerLauncher
-鼠标悬浮开发者
-点击用户软件仓</t>
-  </si>
-  <si>
-    <t>openEuler-导航-开发者-源码</t>
-  </si>
-  <si>
-    <t>进入生产环境
-鼠标悬浮开发者
-点击代码仓
-鼠标悬浮开发者
-点击软件包仓
-鼠标悬浮开发者
-点击Github镜像仓</t>
-  </si>
-  <si>
-    <t>openEuler-导航-社区-关于社区</t>
-  </si>
-  <si>
-    <t>进入生产环境
-鼠标悬浮社区
-点击组织架构
-鼠标悬浮社区
-点击社区章程
-鼠标悬浮社区
-点击oEEP
-鼠标悬浮社区
-点击城市用户组
-鼠标悬浮社区
-点击成员单位
-鼠标悬浮社区
-点击社区荣誉
-鼠标悬浮社区
-点击openEuler Call for X 计划
-鼠标悬浮社区
-点击贡献看板</t>
-  </si>
-  <si>
-    <t>openEuler-导航-社区-学习与贡献</t>
-  </si>
-  <si>
-    <t>进入生产环境
-鼠标悬浮社区
-点击文档(社区)
-鼠标悬浮社区
-点击高校
-鼠标悬浮社区
-点击课程中心(社区)
-鼠标悬浮社区
-点击贡献攻略(社区)
-鼠标悬浮社区
-点击SIG中心(社区)
-鼠标悬浮社区
-点击人才评定</t>
-  </si>
-  <si>
-    <t>openEuler-导航-社区-项目</t>
-  </si>
-  <si>
-    <t>进入生产环境
-鼠标悬浮社区
-点击A-Tune
-鼠标悬浮社区
-点击iSula
-鼠标悬浮社区
-点击StratoVirt
-鼠标悬浮社区
-点击BiSheng JDK
-鼠标悬浮社区
-点击secGear
-鼠标悬浮社区
-点击NestOS</t>
-  </si>
-  <si>
-    <t>openEuler-导航-下载-获取方式</t>
-  </si>
-  <si>
-    <t>进入生产环境
-鼠标悬浮下载
-点击获取openEuler操作系统</t>
-  </si>
-  <si>
-    <t>openEuler-导航-下载-最新版本</t>
-  </si>
-  <si>
-    <t>进入生产环境
-鼠标悬浮下载
-点击openEuler 24.03 LTS
-鼠标悬浮下载
-点击openEuler 24.09</t>
-  </si>
-  <si>
-    <t>openEuler-导航-下载-其他版本</t>
-  </si>
-  <si>
-    <t>进入生产环境
-鼠标悬浮下载
-点击社区发行版
-鼠标悬浮下载
-点击商业发行版</t>
-  </si>
-  <si>
-    <t>openEuler-导航-下载-下载服务</t>
-  </si>
-  <si>
-    <t>进入生产环境
-鼠标悬浮下载
-点击镜像仓列表</t>
-  </si>
-  <si>
-    <t>openEuler-首页-导航-动态</t>
-  </si>
-  <si>
-    <t>进入生产环境
-鼠标悬浮用户
-点击新闻
-鼠标悬浮用户
-点击博客
-鼠标悬浮用户
-点击活动
-鼠标悬浮用户
-点击峰会
-鼠标悬浮用户
-点击月刊</t>
-  </si>
-  <si>
-    <t>openEuler-首页-导航-交流</t>
-  </si>
-  <si>
-    <t>进入生产环境
-鼠标悬浮用户
-点击论坛
-鼠标悬浮用户
-点击邮件列表
-鼠标悬浮用户
-点击线上会议
-鼠标悬浮用户
-点击社交媒体</t>
-  </si>
-  <si>
-    <t>openEuler-主页-页面跳转</t>
-  </si>
-  <si>
-    <t>进入生产环境
-进入案例中心
-进入迁移专区
-进入社区论坛
-进入活动专区</t>
-  </si>
-  <si>
-    <t>openEuler-主页-面向数字基础设施的开源操作系统</t>
-  </si>
-  <si>
-    <t>进入生产环境
-点击支持多样性设备
-点击覆盖全场景应用
-点击完整开发工具链
-点击立即体验</t>
-  </si>
-  <si>
-    <t>openEuler-主页-用户案例</t>
-  </si>
-  <si>
-    <t>进入生产环境
-点击主页用户案例(金融)
-点击主页用户案例(运营商)
-点击主页用户案例(能源)
-点击主页用户案例(物流)
-点击主页用户案例(高校&amp;科研)
-点击主页用户案例(云计算)
-点击主页用户案例(其他)
-更多用户案例</t>
-  </si>
-  <si>
-    <t>openEuler-主页-社区动态</t>
-  </si>
-  <si>
-    <t>进入生产环境
-点击查看贡献详情
-断言社区动态有数据</t>
-  </si>
-  <si>
-    <t>openEuler-主页-博客</t>
-  </si>
-  <si>
-    <t>进入生产环境
-主页查看更多博客
-断言主页博客有数据</t>
-  </si>
-  <si>
-    <t>openEuler-主页-新闻</t>
-  </si>
-  <si>
-    <t>进入生产环境
-主页查看更多新闻
-断言主页新闻有数据</t>
-  </si>
-  <si>
-    <t>openEuler-主页-openEuler 开发者日历</t>
-  </si>
-  <si>
-    <t>进入生产环境
-日历类型切换
-会议详情收起与展开
-切换月份</t>
-  </si>
-  <si>
-    <t>openEuler-主页-悬浮窗帮助</t>
-  </si>
-  <si>
-    <t>进入生产环境
-悬浮窗进入社区论坛
-悬浮窗进入QuickIssue
-悬浮窗进入FAQs</t>
-  </si>
-  <si>
-    <t>openEuler-主页-悬浮窗反馈</t>
-  </si>
-  <si>
-    <t>进入生产环境
-悬浮窗反馈(8,test)</t>
-  </si>
-  <si>
-    <t>openEuler-页脚</t>
-  </si>
-  <si>
-    <t>进入生产环境
-开放原子开源基金会
-品牌
-隐私政策
-法律声明
-关于cookies</t>
-  </si>
-  <si>
-    <t>openEuler-新手指引</t>
-  </si>
-  <si>
-    <t>进入生产环境
-新手指引</t>
   </si>
   <si>
     <t>openEuler-个人中心-信息修改</t>
@@ -467,6 +69,19 @@
 更换头像(C:\Users\Administrator\Desktop\picture\1.jpg)
 修改昵称(klsdnflksdf)
 修改公司(tsdfsd)</t>
+  </si>
+  <si>
+    <t>openEuler-个人中心-取消和重新签署协议</t>
+  </si>
+  <si>
+    <t>进入生产环境
+登录(18048976612,675912zl.@)
+进入个人中心
+取消签署协议
+登录并签署隐私声明(18048976612,675912zl.@)</t>
+  </si>
+  <si>
+    <t>openEuler-消息中心-消息中心操作</t>
   </si>
   <si>
     <t>进入生产环境
@@ -500,6 +115,9 @@
 点击查询历史版本</t>
   </si>
   <si>
+    <t>openEuler-导航-下载-其他版本</t>
+  </si>
+  <si>
     <t>进入生产环境
 点击商业发行版</t>
   </si>
@@ -624,6 +242,9 @@
 进入FAQ常见问题
 进入OSV技术测评整体介绍
 进入QuickIssue(支持与服务)</t>
+  </si>
+  <si>
+    <t>openEuler-导航-社区-关于社区</t>
   </si>
   <si>
     <t>进入生产环境
@@ -654,6 +275,9 @@
 进入高校技术小组</t>
   </si>
   <si>
+    <t>openEuler-导航-社区-项目</t>
+  </si>
+  <si>
     <t>进入生产环境
 进入A-Tune
 进入iSula
@@ -764,6 +388,12 @@
     <t>openEuler-首页-悬浮窗</t>
   </si>
   <si>
+    <t>进入生产环境
+悬浮窗进入社区论坛
+悬浮窗进入QuickIssue
+悬浮窗进入FAQs</t>
+  </si>
+  <si>
     <t>openEuler-页脚-关于openEuler</t>
   </si>
   <si>
@@ -820,6 +450,20 @@
 进入页脚SIG中心
 进入页脚贡献攻略
 进入页脚课程中心</t>
+  </si>
+  <si>
+    <t>openEuler-页脚</t>
+  </si>
+  <si>
+    <t>进入生产环境
+开放原子开源基金会
+品牌
+隐私政策
+法律声明
+关于cookies</t>
+  </si>
+  <si>
+    <t>openEuler-页脚-友情链接</t>
   </si>
   <si>
     <t>进入生产环境
@@ -1454,7 +1098,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1466,9 +1110,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1783,7 +1424,7 @@
   <sheetPr/>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -1820,123 +1461,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="$A2:$XFD2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="316" customHeight="1" outlineLevelRow="1" outlineLevelCol="1"/>
-  <cols>
-    <col min="1" max="1" width="45.1083333333333" customWidth="1"/>
-    <col min="2" max="2" width="142.383333333333" customWidth="1"/>
-    <col min="3" max="3" width="45.1083333333333" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" s="1" customFormat="1" ht="23" customHeight="1" spans="1:2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" s="1" customFormat="1" ht="270" customHeight="1" spans="1:2">
-      <c r="A2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="71" style="4" customWidth="1"/>
-    <col min="2" max="2" width="132.558333333333" style="4" customWidth="1"/>
-  </cols>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="161" customHeight="1" outlineLevelRow="3" outlineLevelCol="1"/>
-  <cols>
-    <col min="1" max="1" width="64.875" customWidth="1"/>
-    <col min="2" max="2" width="43.75" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" s="1" customFormat="1" ht="23" customHeight="1" spans="1:2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" s="1" customFormat="1" ht="120" customHeight="1" spans="1:2">
-      <c r="A2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" s="1" customFormat="1" ht="76" customHeight="1" spans="1:2">
-      <c r="A3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" s="1" customFormat="1" ht="76" customHeight="1" spans="1:2">
-      <c r="A4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:B33"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="B39" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
@@ -1953,537 +1481,252 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" customFormat="1" ht="161" customHeight="1" spans="1:2">
+    <row r="2" customFormat="1" ht="95" customHeight="1" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" s="1" customFormat="1" ht="131" customHeight="1" spans="1:2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" customFormat="1" ht="95" customHeight="1" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>15</v>
+        <v>6</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" ht="131" customHeight="1" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>17</v>
+        <v>8</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" ht="131" customHeight="1" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" ht="131" customHeight="1" spans="1:2">
       <c r="A6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" s="1" customFormat="1" ht="260" customHeight="1" spans="1:2">
+      <c r="A7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" s="1" customFormat="1" ht="108" customHeight="1" spans="1:2">
+      <c r="A8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" s="1" customFormat="1" ht="108" customHeight="1" spans="1:2">
+      <c r="A9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" s="1" customFormat="1" ht="180" customHeight="1" spans="1:2">
+      <c r="A10" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B10" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="7" s="1" customFormat="1" ht="174" customHeight="1" spans="1:2">
-      <c r="A7" s="1" t="s">
+    <row r="11" s="1" customFormat="1" ht="156" customHeight="1" spans="1:2">
+      <c r="A11" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B11" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="8" s="1" customFormat="1" ht="163" customHeight="1" spans="1:2">
-      <c r="A8" s="1" t="s">
+    <row r="12" s="1" customFormat="1" ht="106" customHeight="1" spans="1:2">
+      <c r="A12" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B12" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="9" s="1" customFormat="1" ht="207" customHeight="1" spans="1:2">
-      <c r="A9" s="1" t="s">
+    <row r="13" s="1" customFormat="1" ht="98" customHeight="1" spans="1:2">
+      <c r="A13" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B13" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="10" s="1" customFormat="1" ht="202" customHeight="1" spans="1:2">
-      <c r="A10" s="1" t="s">
+    <row r="14" s="1" customFormat="1" ht="111" customHeight="1" spans="1:2">
+      <c r="A14" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B14" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="11" s="1" customFormat="1" ht="179" customHeight="1" spans="1:2">
-      <c r="A11" s="1" t="s">
+    <row r="15" s="1" customFormat="1" ht="93" customHeight="1" spans="1:2">
+      <c r="A15" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B15" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="12" s="1" customFormat="1" ht="129" customHeight="1" spans="1:2">
-      <c r="A12" s="1" t="s">
+    <row r="16" s="1" customFormat="1" ht="93" customHeight="1" spans="1:2">
+      <c r="A16" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B16" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="13" s="1" customFormat="1" ht="129" customHeight="1" spans="1:2">
-      <c r="A13" s="1" t="s">
+    <row r="17" s="1" customFormat="1" ht="93" customHeight="1" spans="1:2">
+      <c r="A17" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B17" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="14" s="1" customFormat="1" ht="246" customHeight="1" spans="1:2">
-      <c r="A14" s="1" t="s">
+    <row r="18" s="1" customFormat="1" ht="93" customHeight="1" spans="1:2">
+      <c r="A18" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B18" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="15" s="1" customFormat="1" ht="211" customHeight="1" spans="1:2">
-      <c r="A15" s="1" t="s">
+    <row r="19" s="1" customFormat="1" ht="93" customHeight="1" spans="1:2">
+      <c r="A19" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B19" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="16" s="1" customFormat="1" ht="211" customHeight="1" spans="1:2">
-      <c r="A16" s="1" t="s">
+    <row r="20" s="1" customFormat="1" ht="150" customHeight="1" spans="1:2">
+      <c r="A20" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B20" s="2" t="s">
         <v>41</v>
-      </c>
-    </row>
-    <row r="17" s="1" customFormat="1" ht="78" customHeight="1" spans="1:2">
-      <c r="A17" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="18" s="1" customFormat="1" ht="120" customHeight="1" spans="1:2">
-      <c r="A18" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="19" s="1" customFormat="1" ht="126" customHeight="1" spans="1:2">
-      <c r="A19" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="20" s="1" customFormat="1" ht="105" customHeight="1" spans="1:2">
-      <c r="A20" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="21" s="1" customFormat="1" ht="159" customHeight="1" spans="1:2">
       <c r="A21" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" s="1" customFormat="1" ht="173" customHeight="1" spans="1:2">
+      <c r="A22" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" s="1" customFormat="1" ht="147" customHeight="1" spans="1:2">
+      <c r="A23" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" s="1" customFormat="1" ht="150" customHeight="1" spans="1:2">
+      <c r="A24" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" s="1" customFormat="1" ht="99" customHeight="1" spans="1:2">
+      <c r="A25" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B25" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="22" s="1" customFormat="1" ht="159" customHeight="1" spans="1:2">
-      <c r="A22" s="1" t="s">
+    <row r="26" s="1" customFormat="1" ht="99" customHeight="1" spans="1:2">
+      <c r="A26" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B26" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="23" s="1" customFormat="1" ht="120" customHeight="1" spans="1:2">
-      <c r="A23" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="24" s="1" customFormat="1" ht="131" customHeight="1" spans="1:2">
-      <c r="A24" s="1" t="s">
+    <row r="27" s="1" customFormat="1" ht="104" customHeight="1" spans="1:2">
+      <c r="A27" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B27" s="2" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="25" s="1" customFormat="1" ht="105" customHeight="1" spans="1:2">
-      <c r="A25" s="1" t="s">
+    <row r="28" s="1" customFormat="1" ht="105" customHeight="1" spans="1:2">
+      <c r="A28" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B28" s="2" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="26" s="1" customFormat="1" ht="137" customHeight="1" spans="1:2">
-      <c r="A26" s="1" t="s">
+    <row r="29" s="1" customFormat="1" ht="137" customHeight="1" spans="1:2">
+      <c r="A29" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B29" s="2" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="27" s="1" customFormat="1" ht="102" customHeight="1" spans="1:2">
-      <c r="A27" s="1" t="s">
+    <row r="30" s="1" customFormat="1" ht="102" customHeight="1" spans="1:2">
+      <c r="A30" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B30" s="2" t="s">
         <v>61</v>
-      </c>
-    </row>
-    <row r="28" s="1" customFormat="1" ht="76" customHeight="1" spans="1:2">
-      <c r="A28" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="29" s="1" customFormat="1" ht="76" customHeight="1" spans="1:2">
-      <c r="A29" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="30" s="1" customFormat="1" ht="76" customHeight="1" spans="1:2">
-      <c r="A30" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="31" s="1" customFormat="1" ht="76" customHeight="1" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="32" s="1" customFormat="1" ht="76" customHeight="1" spans="1:2">
-      <c r="A32" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="33" s="1" customFormat="1" ht="137" customHeight="1" spans="1:2">
-      <c r="A33" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:B42"/>
-  <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" topLeftCell="B40" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
-  <cols>
-    <col min="1" max="1" width="58.875" customWidth="1"/>
-    <col min="2" max="2" width="57.125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" s="1" customFormat="1" ht="23" customHeight="1" spans="1:2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" customFormat="1" ht="95" customHeight="1" spans="1:2">
-      <c r="A2" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="3" customFormat="1" ht="95" customHeight="1" spans="1:2">
-      <c r="A3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" s="1" customFormat="1" ht="131" customHeight="1" spans="1:2">
-      <c r="A4" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="5" s="1" customFormat="1" ht="131" customHeight="1" spans="1:2">
-      <c r="A5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" s="1" customFormat="1" ht="131" customHeight="1" spans="1:2">
-      <c r="A6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="7" s="1" customFormat="1" ht="260" customHeight="1" spans="1:2">
-      <c r="A7" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="8" s="1" customFormat="1" ht="108" customHeight="1" spans="1:2">
-      <c r="A8" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="9" s="1" customFormat="1" ht="108" customHeight="1" spans="1:2">
-      <c r="A9" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="10" s="1" customFormat="1" ht="180" customHeight="1" spans="1:2">
-      <c r="A10" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="11" s="1" customFormat="1" ht="156" customHeight="1" spans="1:2">
-      <c r="A11" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="12" s="1" customFormat="1" ht="106" customHeight="1" spans="1:2">
-      <c r="A12" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="13" s="1" customFormat="1" ht="98" customHeight="1" spans="1:2">
-      <c r="A13" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="14" s="1" customFormat="1" ht="111" customHeight="1" spans="1:2">
-      <c r="A14" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="15" s="1" customFormat="1" ht="93" customHeight="1" spans="1:2">
-      <c r="A15" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="16" s="1" customFormat="1" ht="93" customHeight="1" spans="1:2">
-      <c r="A16" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="17" s="1" customFormat="1" ht="93" customHeight="1" spans="1:2">
-      <c r="A17" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="18" s="1" customFormat="1" ht="93" customHeight="1" spans="1:2">
-      <c r="A18" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="19" s="1" customFormat="1" ht="93" customHeight="1" spans="1:2">
-      <c r="A19" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="20" s="1" customFormat="1" ht="150" customHeight="1" spans="1:2">
-      <c r="A20" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="21" s="1" customFormat="1" ht="159" customHeight="1" spans="1:2">
-      <c r="A21" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="22" s="1" customFormat="1" ht="173" customHeight="1" spans="1:2">
-      <c r="A22" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="23" s="1" customFormat="1" ht="147" customHeight="1" spans="1:2">
-      <c r="A23" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="24" s="1" customFormat="1" ht="150" customHeight="1" spans="1:2">
-      <c r="A24" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="25" s="1" customFormat="1" ht="99" customHeight="1" spans="1:2">
-      <c r="A25" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="26" s="1" customFormat="1" ht="99" customHeight="1" spans="1:2">
-      <c r="A26" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="27" s="1" customFormat="1" ht="104" customHeight="1" spans="1:2">
-      <c r="A27" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="28" s="1" customFormat="1" ht="105" customHeight="1" spans="1:2">
-      <c r="A28" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="29" s="1" customFormat="1" ht="137" customHeight="1" spans="1:2">
-      <c r="A29" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="30" s="1" customFormat="1" ht="102" customHeight="1" spans="1:2">
-      <c r="A30" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="31" s="1" customFormat="1" ht="76" customHeight="1" spans="1:2">
-      <c r="A31" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>125</v>
+        <v>63</v>
       </c>
     </row>
     <row r="32" s="1" customFormat="1" ht="137" customHeight="1" spans="1:2">
       <c r="A32" s="1" t="s">
-        <v>126</v>
+        <v>64</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>127</v>
+        <v>65</v>
       </c>
     </row>
     <row r="33" s="1" customFormat="1" ht="76" customHeight="1" spans="1:2">
@@ -2491,79 +1734,79 @@
         <v>2</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>128</v>
+        <v>66</v>
       </c>
     </row>
     <row r="34" s="1" customFormat="1" ht="76" customHeight="1" spans="1:2">
       <c r="A34" s="1" t="s">
-        <v>129</v>
+        <v>67</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="35" s="1" customFormat="1" ht="137" customHeight="1" spans="1:2">
       <c r="A35" s="1" t="s">
-        <v>130</v>
+        <v>69</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>131</v>
+        <v>70</v>
       </c>
     </row>
     <row r="36" s="1" customFormat="1" ht="137" customHeight="1" spans="1:2">
       <c r="A36" s="1" t="s">
-        <v>132</v>
+        <v>71</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>133</v>
+        <v>72</v>
       </c>
     </row>
     <row r="37" s="1" customFormat="1" ht="137" customHeight="1" spans="1:2">
       <c r="A37" s="1" t="s">
-        <v>134</v>
+        <v>73</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>135</v>
+        <v>74</v>
       </c>
     </row>
     <row r="38" s="1" customFormat="1" ht="137" customHeight="1" spans="1:2">
       <c r="A38" s="1" t="s">
-        <v>136</v>
+        <v>75</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>137</v>
+        <v>76</v>
       </c>
     </row>
     <row r="39" s="1" customFormat="1" ht="137" customHeight="1" spans="1:2">
       <c r="A39" s="1" t="s">
-        <v>138</v>
+        <v>77</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>139</v>
+        <v>78</v>
       </c>
     </row>
     <row r="40" s="1" customFormat="1" ht="137" customHeight="1" spans="1:2">
       <c r="A40" s="1" t="s">
-        <v>140</v>
+        <v>79</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>141</v>
+        <v>80</v>
       </c>
     </row>
     <row r="41" s="1" customFormat="1" ht="137" customHeight="1" spans="1:2">
       <c r="A41" s="1" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
     </row>
     <row r="42" s="1" customFormat="1" ht="92" customHeight="1" spans="1:2">
       <c r="A42" s="1" t="s">
-        <v>4</v>
+        <v>83</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>142</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>

--- a/本地play_UI _easySoftWare/test_cases/欧拉社区UI自动化测试用例.xlsx
+++ b/本地play_UI _easySoftWare/test_cases/欧拉社区UI自动化测试用例.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15600" windowHeight="13260" activeTab="1"/>
+    <workbookView windowWidth="15600" windowHeight="13260"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -41,8 +41,8 @@
   <si>
     <t>进入生产环境
 跳过新手指引
-进入Compass-CI
-友情链接</t>
+点击主页用户案例(运营商)
+点击主页用户案例(能源)</t>
   </si>
   <si>
     <t>openEuler-新手指引</t>
@@ -1424,7 +1424,7 @@
   <sheetPr/>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -1463,8 +1463,8 @@
   <sheetPr/>
   <dimension ref="A1:B42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="B39" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" topLeftCell="B30" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>

--- a/本地play_UI _easySoftWare/test_cases/欧拉社区UI自动化测试用例.xlsx
+++ b/本地play_UI _easySoftWare/test_cases/欧拉社区UI自动化测试用例.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15600" windowHeight="13260"/>
+    <workbookView windowWidth="15600" windowHeight="13260" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1424,7 +1424,7 @@
   <sheetPr/>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -1463,7 +1463,7 @@
   <sheetPr/>
   <dimension ref="A1:B42"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" topLeftCell="B30" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="B30" workbookViewId="0">
       <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
